--- a/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9970845174701954</v>
+        <v>1.014405520865593</v>
       </c>
       <c r="D3">
+        <v>0.9960158514193692</v>
+      </c>
+      <c r="E3">
         <v>1.014405520865593</v>
-      </c>
-      <c r="E3">
-        <v>0.9960158514193692</v>
       </c>
       <c r="F3">
         <v>0.9970845174701954</v>
       </c>
       <c r="G3">
+        <v>1.008175376238889</v>
+      </c>
+      <c r="H3">
         <v>0.9891628651023457</v>
       </c>
-      <c r="H3">
-        <v>1.008175376238889</v>
-      </c>
       <c r="I3">
-        <v>0.9963274156016281</v>
+        <v>0.9970845174701954</v>
       </c>
       <c r="J3">
-        <v>1.014405520865593</v>
+        <v>0.9963274156016282</v>
       </c>
       <c r="K3">
         <v>0.9970845174701954</v>
@@ -788,7 +680,7 @@
         <v>1.000195257783003</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9943931466753338</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="D4">
+        <v>0.9923018435419203</v>
+      </c>
+      <c r="E4">
         <v>1.027796582347478</v>
-      </c>
-      <c r="E4">
-        <v>0.9923018435419203</v>
       </c>
       <c r="F4">
         <v>0.9943931466753338</v>
       </c>
       <c r="G4">
+        <v>1.01578173998079</v>
+      </c>
+      <c r="H4">
         <v>0.9790556460447278</v>
       </c>
-      <c r="H4">
-        <v>1.01578173998079</v>
-      </c>
       <c r="I4">
+        <v>0.9943931466753338</v>
+      </c>
+      <c r="J4">
         <v>0.9929115539759762</v>
-      </c>
-      <c r="J4">
-        <v>1.027796582347478</v>
       </c>
       <c r="K4">
         <v>0.9943931466753338</v>
@@ -850,7 +742,7 @@
         <v>1.000373418761038</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.989059414347724</v>
+        <v>1.053388635163531</v>
       </c>
       <c r="D5">
+        <v>0.9853094287970292</v>
+      </c>
+      <c r="E5">
         <v>1.053388635163531</v>
-      </c>
-      <c r="E5">
-        <v>0.9853094287970292</v>
       </c>
       <c r="F5">
         <v>0.989059414347724</v>
       </c>
       <c r="G5">
+        <v>1.030250412316816</v>
+      </c>
+      <c r="H5">
         <v>0.9600764969493667</v>
       </c>
-      <c r="H5">
-        <v>1.030250412316816</v>
-      </c>
       <c r="I5">
+        <v>0.989059414347724</v>
+      </c>
+      <c r="J5">
         <v>0.9864027156940827</v>
-      </c>
-      <c r="J5">
-        <v>1.053388635163531</v>
       </c>
       <c r="K5">
         <v>0.989059414347724</v>
@@ -912,7 +804,7 @@
         <v>1.000747850544758</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9838603097581772</v>
+        <v>1.078362653883097</v>
       </c>
       <c r="D6">
+        <v>0.9784829968923793</v>
+      </c>
+      <c r="E6">
         <v>1.078362653883097</v>
-      </c>
-      <c r="E6">
-        <v>0.9784829968923793</v>
       </c>
       <c r="F6">
         <v>0.9838603097581772</v>
       </c>
       <c r="G6">
+        <v>1.044370777714139</v>
+      </c>
+      <c r="H6">
         <v>0.9415476834273904</v>
       </c>
-      <c r="H6">
-        <v>1.044370777714139</v>
-      </c>
       <c r="I6">
+        <v>0.9838603097581772</v>
+      </c>
+      <c r="J6">
         <v>0.9800507345927896</v>
-      </c>
-      <c r="J6">
-        <v>1.078362653883097</v>
       </c>
       <c r="K6">
         <v>0.9838603097581772</v>
@@ -974,7 +866,7 @@
         <v>1.001112526044662</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997314661129012</v>
+        <v>1.000983999952439</v>
       </c>
       <c r="D7">
+        <v>0.9997679861834489</v>
+      </c>
+      <c r="E7">
         <v>1.000983999952439</v>
       </c>
-      <c r="E7">
-        <v>0.9997679861834489</v>
-      </c>
       <c r="F7">
-        <v>0.9997314661129012</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="G7">
-        <v>0.9993956565152327</v>
+        <v>1.000528555973675</v>
       </c>
       <c r="H7">
-        <v>1.000528555973675</v>
+        <v>0.9993956565152329</v>
       </c>
       <c r="I7">
-        <v>0.9997573387097167</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="J7">
-        <v>1.000983999952439</v>
+        <v>0.9997573387097165</v>
       </c>
       <c r="K7">
-        <v>0.9997314661129012</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="L7">
         <v>0.9997679861834489</v>
@@ -1018,7 +910,7 @@
         <v>1.000375993067944</v>
       </c>
       <c r="O7">
-        <v>1.000426847369855</v>
+        <v>1.000426847369854</v>
       </c>
       <c r="P7">
         <v>1.000161150749596</v>
@@ -1027,16 +919,16 @@
         <v>1.000161150749596</v>
       </c>
       <c r="R7">
-        <v>1.000053729590423</v>
+        <v>1.000053729590422</v>
       </c>
       <c r="S7">
-        <v>1.000053729590423</v>
+        <v>1.000053729590422</v>
       </c>
       <c r="T7">
         <v>1.000027500574569</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,34 +936,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999467711679818</v>
+        <v>1.002184210141624</v>
       </c>
       <c r="D8">
+        <v>0.9994530882143737</v>
+      </c>
+      <c r="E8">
         <v>1.002184210141624</v>
       </c>
-      <c r="E8">
-        <v>0.999453088214374</v>
-      </c>
       <c r="F8">
-        <v>0.999467711679818</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="G8">
-        <v>0.9985770817652052</v>
+        <v>1.001184366862284</v>
       </c>
       <c r="H8">
-        <v>1.001184366862284</v>
+        <v>0.9985770817652049</v>
       </c>
       <c r="I8">
-        <v>0.9994573509987479</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="J8">
-        <v>1.002184210141624</v>
+        <v>0.9994573509987476</v>
       </c>
       <c r="K8">
-        <v>0.999467711679818</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="L8">
-        <v>0.999453088214374</v>
+        <v>0.9994530882143737</v>
       </c>
       <c r="M8">
         <v>1.000818649177999</v>
@@ -1080,7 +972,7 @@
         <v>1.000818649177999</v>
       </c>
       <c r="O8">
-        <v>1.00094055507276</v>
+        <v>1.000940555072761</v>
       </c>
       <c r="P8">
         <v>1.000368336678605</v>
@@ -1098,7 +990,7 @@
         <v>1.000053968277009</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994528483323841</v>
+        <v>1.002819731120425</v>
       </c>
       <c r="D9">
+        <v>0.9992207114048325</v>
+      </c>
+      <c r="E9">
         <v>1.002819731120425</v>
-      </c>
-      <c r="E9">
-        <v>0.9992207114048325</v>
       </c>
       <c r="F9">
         <v>0.9994528483323841</v>
       </c>
       <c r="G9">
+        <v>1.001566614873024</v>
+      </c>
+      <c r="H9">
         <v>0.9979446589617001</v>
       </c>
-      <c r="H9">
-        <v>1.001566614873024</v>
-      </c>
       <c r="I9">
+        <v>0.9994528483323841</v>
+      </c>
+      <c r="J9">
         <v>0.9992883891793674</v>
-      </c>
-      <c r="J9">
-        <v>1.002819731120425</v>
       </c>
       <c r="K9">
         <v>0.9994528483323841</v>
@@ -1160,7 +1052,7 @@
         <v>1.000048825645289</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9985785089178593</v>
+        <v>1.006332524858342</v>
       </c>
       <c r="D10">
+        <v>0.9983489055325222</v>
+      </c>
+      <c r="E10">
         <v>1.006332524858342</v>
-      </c>
-      <c r="E10">
-        <v>0.9983489055325222</v>
       </c>
       <c r="F10">
         <v>0.9985785089178593</v>
       </c>
       <c r="G10">
+        <v>1.003473422583392</v>
+      </c>
+      <c r="H10">
         <v>0.9956645035522087</v>
       </c>
-      <c r="H10">
-        <v>1.003473422583392</v>
-      </c>
       <c r="I10">
+        <v>0.9985785089178593</v>
+      </c>
+      <c r="J10">
         <v>0.9984158463048881</v>
-      </c>
-      <c r="J10">
-        <v>1.006332524858342</v>
       </c>
       <c r="K10">
         <v>0.9985785089178593</v>
@@ -1222,7 +1114,7 @@
         <v>1.000135618624869</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9982995855561868</v>
+        <v>1.009755609257928</v>
       </c>
       <c r="D11">
+        <v>0.9972027366632632</v>
+      </c>
+      <c r="E11">
         <v>1.009755609257928</v>
-      </c>
-      <c r="E11">
-        <v>0.9972027366632632</v>
       </c>
       <c r="F11">
         <v>0.9982995855561868</v>
       </c>
       <c r="G11">
+        <v>1.005466336231069</v>
+      </c>
+      <c r="H11">
         <v>0.9926142823046769</v>
       </c>
-      <c r="H11">
-        <v>1.005466336231069</v>
-      </c>
       <c r="I11">
+        <v>0.9982995855561868</v>
+      </c>
+      <c r="J11">
         <v>0.9975225160720866</v>
-      </c>
-      <c r="J11">
-        <v>1.009755609257928</v>
       </c>
       <c r="K11">
         <v>0.9982995855561868</v>
@@ -1284,7 +1176,7 @@
         <v>1.000143511014202</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.075386889794298</v>
+        <v>0.9105796992393499</v>
       </c>
       <c r="D12">
-        <v>0.91057969923935</v>
+        <v>0.9929873492974732</v>
       </c>
       <c r="E12">
-        <v>0.9929873492974732</v>
+        <v>0.9105796992393499</v>
       </c>
       <c r="F12">
         <v>1.075386889794298</v>
       </c>
       <c r="G12">
-        <v>0.9660316812289249</v>
+        <v>0.9696302746571999</v>
       </c>
       <c r="H12">
-        <v>0.9696302746571999</v>
+        <v>0.966031681228925</v>
       </c>
       <c r="I12">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="J12">
         <v>1.017010539067367</v>
-      </c>
-      <c r="J12">
-        <v>0.91057969923935</v>
       </c>
       <c r="K12">
         <v>1.075386889794298</v>
@@ -1346,7 +1238,7 @@
         <v>0.9886044055474356</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9768606400292907</v>
+        <v>1.00267354164588</v>
       </c>
       <c r="D13">
+        <v>1.011692037474417</v>
+      </c>
+      <c r="E13">
         <v>1.00267354164588</v>
-      </c>
-      <c r="E13">
-        <v>1.011692037474417</v>
       </c>
       <c r="F13">
         <v>0.9768606400292907</v>
       </c>
       <c r="G13">
+        <v>0.993730350242331</v>
+      </c>
+      <c r="H13">
         <v>1.037326427000578</v>
       </c>
-      <c r="H13">
-        <v>0.9937303502423311</v>
-      </c>
       <c r="I13">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="J13">
         <v>1.001537114277415</v>
-      </c>
-      <c r="J13">
-        <v>1.00267354164588</v>
       </c>
       <c r="K13">
         <v>0.9768606400292907</v>
@@ -1396,19 +1288,19 @@
         <v>0.997075406383196</v>
       </c>
       <c r="Q13">
-        <v>0.9970754063831961</v>
+        <v>0.997075406383196</v>
       </c>
       <c r="R13">
-        <v>0.9920217147947198</v>
+        <v>0.9920217147947197</v>
       </c>
       <c r="S13">
-        <v>0.9920217147947198</v>
+        <v>0.9920217147947197</v>
       </c>
       <c r="T13">
-        <v>1.003970018444986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.003970018444985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9308728181281832</v>
+        <v>0.9753406102947882</v>
       </c>
       <c r="D14">
-        <v>0.9753406102947881</v>
+        <v>1.047868319287929</v>
       </c>
       <c r="E14">
-        <v>1.04786831928793</v>
+        <v>0.9753406102947882</v>
       </c>
       <c r="F14">
         <v>0.9308728181281832</v>
       </c>
       <c r="G14">
+        <v>0.9595273265176854</v>
+      </c>
+      <c r="H14">
         <v>1.150124568706548</v>
       </c>
-      <c r="H14">
-        <v>0.9595273265176854</v>
-      </c>
       <c r="I14">
-        <v>1.013758856836758</v>
+        <v>0.9308728181281832</v>
       </c>
       <c r="J14">
-        <v>0.9753406102947881</v>
+        <v>1.013758856836757</v>
       </c>
       <c r="K14">
         <v>0.9308728181281832</v>
       </c>
       <c r="L14">
-        <v>1.04786831928793</v>
+        <v>1.047868319287929</v>
       </c>
       <c r="M14">
         <v>1.011604464791359</v>
@@ -1458,19 +1350,19 @@
         <v>0.9846939159036338</v>
       </c>
       <c r="Q14">
-        <v>0.9846939159036338</v>
+        <v>0.9846939159036335</v>
       </c>
       <c r="R14">
-        <v>0.9712386414597711</v>
+        <v>0.971238641459771</v>
       </c>
       <c r="S14">
-        <v>0.9712386414597711</v>
+        <v>0.971238641459771</v>
       </c>
       <c r="T14">
         <v>1.012915416628648</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,40 +1370,40 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.041597719753494</v>
+        <v>0.9583838242667004</v>
       </c>
       <c r="D15">
-        <v>0.9583838242667003</v>
+        <v>0.9934404279803428</v>
       </c>
       <c r="E15">
-        <v>0.9934404279803428</v>
+        <v>0.9583838242667004</v>
       </c>
       <c r="F15">
-        <v>1.041597719753494</v>
+        <v>1.041597719753493</v>
       </c>
       <c r="G15">
+        <v>0.9877867154196398</v>
+      </c>
+      <c r="H15">
         <v>0.9727108968762332</v>
       </c>
-      <c r="H15">
-        <v>0.9877867154196399</v>
-      </c>
       <c r="I15">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="J15">
         <v>1.007480446150207</v>
       </c>
-      <c r="J15">
-        <v>0.9583838242667003</v>
-      </c>
       <c r="K15">
-        <v>1.041597719753494</v>
+        <v>1.041597719753493</v>
       </c>
       <c r="L15">
         <v>0.9934404279803428</v>
       </c>
       <c r="M15">
-        <v>0.9759121261235215</v>
+        <v>0.9759121261235216</v>
       </c>
       <c r="N15">
-        <v>0.9759121261235215</v>
+        <v>0.9759121261235216</v>
       </c>
       <c r="O15">
         <v>0.9798703225555609</v>
@@ -1532,7 +1424,7 @@
         <v>0.9935666717411027</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997591186580943</v>
+        <v>1.282196040534324</v>
       </c>
       <c r="D16">
-        <v>1.000204314289278</v>
+        <v>0.9229500405603239</v>
       </c>
       <c r="E16">
-        <v>1.000055254817863</v>
+        <v>1.282196040534324</v>
       </c>
       <c r="F16">
-        <v>0.9997591186580943</v>
+        <v>0.941100434701953</v>
       </c>
       <c r="G16">
-        <v>1.000208321903947</v>
+        <v>1.159493299437899</v>
       </c>
       <c r="H16">
-        <v>1.000041281561376</v>
+        <v>0.7909210564491422</v>
       </c>
       <c r="I16">
-        <v>0.9999689175319703</v>
+        <v>0.941100434701953</v>
       </c>
       <c r="J16">
-        <v>1.000204314289278</v>
+        <v>0.9282417020034184</v>
       </c>
       <c r="K16">
-        <v>0.9997591186580943</v>
+        <v>0.941100434701953</v>
       </c>
       <c r="L16">
-        <v>1.000055254817863</v>
+        <v>0.9229500405603239</v>
       </c>
       <c r="M16">
-        <v>1.00012978455357</v>
+        <v>1.102573040547324</v>
       </c>
       <c r="N16">
-        <v>1.00012978455357</v>
+        <v>1.102573040547324</v>
       </c>
       <c r="O16">
-        <v>1.000100283556172</v>
+        <v>1.121546460177516</v>
       </c>
       <c r="P16">
-        <v>1.000006229255078</v>
+        <v>1.048748838598867</v>
       </c>
       <c r="Q16">
-        <v>1.000006229255078</v>
+        <v>1.048748838598867</v>
       </c>
       <c r="R16">
-        <v>0.9999444516058322</v>
+        <v>1.021836737624639</v>
       </c>
       <c r="S16">
-        <v>0.9999444516058322</v>
+        <v>1.021836737624639</v>
       </c>
       <c r="T16">
-        <v>1.000039534793755</v>
+        <v>1.004150428947844</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998887544351591</v>
+        <v>1.233299817165775</v>
       </c>
       <c r="D17">
-        <v>1.001166105881405</v>
+        <v>0.9383214789278924</v>
       </c>
       <c r="E17">
-        <v>0.9996069840391398</v>
+        <v>1.233299817165775</v>
       </c>
       <c r="F17">
-        <v>0.9998887544351591</v>
+        <v>0.9476761185541487</v>
       </c>
       <c r="G17">
-        <v>0.9988915238186244</v>
+        <v>1.130537079765486</v>
       </c>
       <c r="H17">
-        <v>1.000710383723097</v>
+        <v>0.8336380611482636</v>
       </c>
       <c r="I17">
-        <v>0.9996891324211854</v>
+        <v>0.9476761185541487</v>
       </c>
       <c r="J17">
-        <v>1.001166105881405</v>
+        <v>0.9410487799699911</v>
       </c>
       <c r="K17">
-        <v>0.9998887544351591</v>
+        <v>0.9476761185541487</v>
       </c>
       <c r="L17">
-        <v>0.9996069840391398</v>
+        <v>0.9383214789278924</v>
       </c>
       <c r="M17">
-        <v>1.000386544960272</v>
+        <v>1.085810648046833</v>
       </c>
       <c r="N17">
-        <v>1.000386544960272</v>
+        <v>1.085810648046833</v>
       </c>
       <c r="O17">
-        <v>1.000494491214547</v>
+        <v>1.100719458619718</v>
       </c>
       <c r="P17">
-        <v>1.000220614785235</v>
+        <v>1.039765804882605</v>
       </c>
       <c r="Q17">
-        <v>1.000220614785235</v>
+        <v>1.039765804882605</v>
       </c>
       <c r="R17">
-        <v>1.000137649697716</v>
+        <v>1.016743383300491</v>
       </c>
       <c r="S17">
-        <v>1.000137649697716</v>
+        <v>1.016743383300491</v>
       </c>
       <c r="T17">
-        <v>0.9999921473864349</v>
+        <v>1.004086889255259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985620000645224</v>
+        <v>1.134385806362388</v>
       </c>
       <c r="D18">
-        <v>1.004779713775969</v>
+        <v>0.9692110480496239</v>
       </c>
       <c r="E18">
-        <v>0.9989422385280404</v>
+        <v>1.134385806362388</v>
       </c>
       <c r="F18">
-        <v>0.9985620000645224</v>
+        <v>0.9613599475016913</v>
       </c>
       <c r="G18">
-        <v>0.997262514017125</v>
+        <v>1.072078748859318</v>
       </c>
       <c r="H18">
-        <v>1.002534755180529</v>
+        <v>0.919422620041489</v>
       </c>
       <c r="I18">
-        <v>0.9988313796366688</v>
+        <v>0.9613599475016913</v>
       </c>
       <c r="J18">
-        <v>1.004779713775969</v>
+        <v>0.9669220953225713</v>
       </c>
       <c r="K18">
-        <v>0.9985620000645224</v>
+        <v>0.9613599475016913</v>
       </c>
       <c r="L18">
-        <v>0.9989422385280404</v>
+        <v>0.9692110480496239</v>
       </c>
       <c r="M18">
-        <v>1.001860976152005</v>
+        <v>1.051798427206006</v>
       </c>
       <c r="N18">
-        <v>1.001860976152005</v>
+        <v>1.051798427206006</v>
       </c>
       <c r="O18">
-        <v>1.002085569161513</v>
+        <v>1.058558534423777</v>
       </c>
       <c r="P18">
-        <v>1.000761317456177</v>
+        <v>1.021652267304568</v>
       </c>
       <c r="Q18">
-        <v>1.000761317456177</v>
+        <v>1.021652267304568</v>
       </c>
       <c r="R18">
-        <v>1.000211488108264</v>
+        <v>1.006579187353849</v>
       </c>
       <c r="S18">
-        <v>1.000211488108264</v>
+        <v>1.006579187353849</v>
       </c>
       <c r="T18">
-        <v>1.000152100200476</v>
+        <v>1.003896711022847</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.147872605728705</v>
+      </c>
+      <c r="D19">
+        <v>0.9675537862027079</v>
+      </c>
+      <c r="E19">
+        <v>1.147872605728705</v>
+      </c>
+      <c r="F19">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="G19">
+        <v>1.07843494350666</v>
+      </c>
+      <c r="H19">
+        <v>0.9158325995250098</v>
+      </c>
+      <c r="I19">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="J19">
+        <v>0.9638537368574031</v>
+      </c>
+      <c r="K19">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="L19">
+        <v>0.9675537862027079</v>
+      </c>
+      <c r="M19">
+        <v>1.057713195965706</v>
+      </c>
+      <c r="N19">
+        <v>1.057713195965706</v>
+      </c>
+      <c r="O19">
+        <v>1.064620445146024</v>
+      </c>
+      <c r="P19">
+        <v>1.023429666542713</v>
+      </c>
+      <c r="Q19">
+        <v>1.023429666542713</v>
+      </c>
+      <c r="R19">
+        <v>1.006287901831217</v>
+      </c>
+      <c r="S19">
+        <v>1.006287901831217</v>
+      </c>
+      <c r="T19">
+        <v>1.004735046586202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000204314289278</v>
+      </c>
+      <c r="D20">
+        <v>1.000055254817863</v>
+      </c>
+      <c r="E20">
+        <v>1.000204314289278</v>
+      </c>
+      <c r="F20">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="G20">
+        <v>1.000041281561376</v>
+      </c>
+      <c r="H20">
+        <v>1.000208321903947</v>
+      </c>
+      <c r="I20">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="J20">
+        <v>0.99996891753197</v>
+      </c>
+      <c r="K20">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="L20">
+        <v>1.000055254817863</v>
+      </c>
+      <c r="M20">
+        <v>1.00012978455357</v>
+      </c>
+      <c r="N20">
+        <v>1.00012978455357</v>
+      </c>
+      <c r="O20">
+        <v>1.000100283556172</v>
+      </c>
+      <c r="P20">
+        <v>1.000006229255078</v>
+      </c>
+      <c r="Q20">
+        <v>1.000006229255078</v>
+      </c>
+      <c r="R20">
+        <v>0.9999444516058322</v>
+      </c>
+      <c r="S20">
+        <v>0.9999444516058322</v>
+      </c>
+      <c r="T20">
+        <v>1.000039534793755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001166105881404</v>
+      </c>
+      <c r="D21">
+        <v>0.9996069840391398</v>
+      </c>
+      <c r="E21">
+        <v>1.001166105881404</v>
+      </c>
+      <c r="F21">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="G21">
+        <v>1.000710383723097</v>
+      </c>
+      <c r="H21">
+        <v>0.9988915238186244</v>
+      </c>
+      <c r="I21">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="J21">
+        <v>0.9996891324211854</v>
+      </c>
+      <c r="K21">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="L21">
+        <v>0.9996069840391398</v>
+      </c>
+      <c r="M21">
+        <v>1.000386544960272</v>
+      </c>
+      <c r="N21">
+        <v>1.000386544960272</v>
+      </c>
+      <c r="O21">
+        <v>1.000494491214547</v>
+      </c>
+      <c r="P21">
+        <v>1.000220614785234</v>
+      </c>
+      <c r="Q21">
+        <v>1.000220614785235</v>
+      </c>
+      <c r="R21">
+        <v>1.000137649697716</v>
+      </c>
+      <c r="S21">
+        <v>1.000137649697716</v>
+      </c>
+      <c r="T21">
+        <v>0.9999921473864349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.004779713775969</v>
+      </c>
+      <c r="D22">
+        <v>0.9989422385280405</v>
+      </c>
+      <c r="E22">
+        <v>1.004779713775969</v>
+      </c>
+      <c r="F22">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="G22">
+        <v>1.002534755180529</v>
+      </c>
+      <c r="H22">
+        <v>0.9972625140171247</v>
+      </c>
+      <c r="I22">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="J22">
+        <v>0.9988313796366688</v>
+      </c>
+      <c r="K22">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="L22">
+        <v>0.9989422385280405</v>
+      </c>
+      <c r="M22">
+        <v>1.001860976152005</v>
+      </c>
+      <c r="N22">
+        <v>1.001860976152005</v>
+      </c>
+      <c r="O22">
+        <v>1.002085569161513</v>
+      </c>
+      <c r="P22">
+        <v>1.000761317456177</v>
+      </c>
+      <c r="Q22">
+        <v>1.000761317456177</v>
+      </c>
+      <c r="R22">
+        <v>1.000211488108264</v>
+      </c>
+      <c r="S22">
+        <v>1.000211488108264</v>
+      </c>
+      <c r="T22">
+        <v>1.000152100200476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.011541277023999</v>
+      </c>
+      <c r="D23">
+        <v>0.9976833655361981</v>
+      </c>
+      <c r="E23">
+        <v>1.011541277023999</v>
+      </c>
+      <c r="F23">
         <v>0.9961091628473799</v>
       </c>
-      <c r="D19">
-        <v>1.011541277023999</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.005954575436356</v>
+      </c>
+      <c r="H23">
+        <v>0.9941732124117081</v>
+      </c>
+      <c r="I23">
+        <v>0.9961091628473799</v>
+      </c>
+      <c r="J23">
+        <v>0.9972244112570736</v>
+      </c>
+      <c r="K23">
+        <v>0.9961091628473799</v>
+      </c>
+      <c r="L23">
         <v>0.9976833655361981</v>
       </c>
-      <c r="F19">
-        <v>0.9961091628473799</v>
-      </c>
-      <c r="G19">
-        <v>0.9941732124117081</v>
-      </c>
-      <c r="H19">
-        <v>1.005954575436356</v>
-      </c>
-      <c r="I19">
-        <v>0.9972244112570736</v>
-      </c>
-      <c r="J19">
-        <v>1.011541277023999</v>
-      </c>
-      <c r="K19">
-        <v>0.9961091628473799</v>
-      </c>
-      <c r="L19">
-        <v>0.9976833655361981</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.004612321280098</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.004612321280098</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.005059739332184</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001777935135859</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001777935135859</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000360742063739</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000360742063739</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000447667418786</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.014405520865593</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="D3">
-        <v>0.9960158514193692</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="E3">
-        <v>1.014405520865593</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="F3">
-        <v>0.9970845174701954</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="G3">
-        <v>1.008175376238889</v>
+        <v>1.083443997543228</v>
       </c>
       <c r="H3">
-        <v>0.9891628651023457</v>
+        <v>0.9070916007132552</v>
       </c>
       <c r="I3">
-        <v>0.9970845174701954</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="J3">
-        <v>0.9963274156016282</v>
+        <v>0.9616878653746387</v>
       </c>
       <c r="K3">
-        <v>0.9970845174701954</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="L3">
-        <v>0.9960158514193692</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="M3">
-        <v>1.005210686142481</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="N3">
-        <v>1.005210686142481</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="O3">
-        <v>1.006198916174617</v>
+        <v>1.067887120809321</v>
       </c>
       <c r="P3">
-        <v>1.002501963251719</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="Q3">
-        <v>1.002501963251719</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="R3">
-        <v>1.001147601806338</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="S3">
-        <v>1.001147601806338</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="T3">
-        <v>1.000195257783003</v>
+        <v>1.004565642395534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.027796582347478</v>
+        <v>1.144599055040064</v>
       </c>
       <c r="D4">
-        <v>0.9923018435419203</v>
+        <v>0.9670745253745813</v>
       </c>
       <c r="E4">
-        <v>1.027796582347478</v>
+        <v>1.144599055040064</v>
       </c>
       <c r="F4">
-        <v>0.9943931466753338</v>
+        <v>0.9580411212364861</v>
       </c>
       <c r="G4">
-        <v>1.01578173998079</v>
+        <v>1.07744419450149</v>
       </c>
       <c r="H4">
-        <v>0.9790556460447278</v>
+        <v>0.9139182271850509</v>
       </c>
       <c r="I4">
-        <v>0.9943931466753338</v>
+        <v>0.9580411212364861</v>
       </c>
       <c r="J4">
-        <v>0.9929115539759762</v>
+        <v>0.9644408798071239</v>
       </c>
       <c r="K4">
-        <v>0.9943931466753338</v>
+        <v>0.9580411212364861</v>
       </c>
       <c r="L4">
-        <v>0.9923018435419203</v>
+        <v>0.9670745253745813</v>
       </c>
       <c r="M4">
-        <v>1.010049212944699</v>
+        <v>1.055836790207322</v>
       </c>
       <c r="N4">
-        <v>1.010049212944699</v>
+        <v>1.055836790207322</v>
       </c>
       <c r="O4">
-        <v>1.011960055290063</v>
+        <v>1.063039258305378</v>
       </c>
       <c r="P4">
-        <v>1.004830524188244</v>
+        <v>1.02323823388371</v>
       </c>
       <c r="Q4">
-        <v>1.004830524188244</v>
+        <v>1.02323823388371</v>
       </c>
       <c r="R4">
-        <v>1.002221179810017</v>
+        <v>1.006938955721904</v>
       </c>
       <c r="S4">
-        <v>1.002221179810017</v>
+        <v>1.006938955721904</v>
       </c>
       <c r="T4">
-        <v>1.000373418761038</v>
+        <v>1.004253000524133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.053388635163531</v>
+        <v>1.176829125849056</v>
       </c>
       <c r="D5">
-        <v>0.9853094287970292</v>
+        <v>0.9594830311859827</v>
       </c>
       <c r="E5">
-        <v>1.053388635163531</v>
+        <v>1.176829125849056</v>
       </c>
       <c r="F5">
-        <v>0.989059414347724</v>
+        <v>0.949198775256065</v>
       </c>
       <c r="G5">
-        <v>1.030250412316816</v>
+        <v>1.094787306684637</v>
       </c>
       <c r="H5">
-        <v>0.9600764969493667</v>
+        <v>0.8940992006199457</v>
       </c>
       <c r="I5">
-        <v>0.989059414347724</v>
+        <v>0.949198775256065</v>
       </c>
       <c r="J5">
-        <v>0.9864027156940827</v>
+        <v>0.9564847047708884</v>
       </c>
       <c r="K5">
-        <v>0.989059414347724</v>
+        <v>0.949198775256065</v>
       </c>
       <c r="L5">
-        <v>0.9853094287970292</v>
+        <v>0.9594830311859827</v>
       </c>
       <c r="M5">
-        <v>1.01934903198028</v>
+        <v>1.068156078517519</v>
       </c>
       <c r="N5">
-        <v>1.01934903198028</v>
+        <v>1.068156078517519</v>
       </c>
       <c r="O5">
-        <v>1.022982825425792</v>
+        <v>1.077033154573225</v>
       </c>
       <c r="P5">
-        <v>1.009252492769428</v>
+        <v>1.028503644097035</v>
       </c>
       <c r="Q5">
-        <v>1.009252492769428</v>
+        <v>1.028503644097035</v>
       </c>
       <c r="R5">
-        <v>1.004204223164002</v>
+        <v>1.008677426886792</v>
       </c>
       <c r="S5">
-        <v>1.004204223164002</v>
+        <v>1.008677426886792</v>
       </c>
       <c r="T5">
-        <v>1.000747850544758</v>
+        <v>1.005147024061096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.078362653883097</v>
+        <v>1.196359535681818</v>
       </c>
       <c r="D6">
-        <v>0.9784829968923793</v>
+        <v>0.9548247428409089</v>
       </c>
       <c r="E6">
-        <v>1.078362653883097</v>
+        <v>1.196359535681818</v>
       </c>
       <c r="F6">
-        <v>0.9838603097581772</v>
+        <v>0.943957312443182</v>
       </c>
       <c r="G6">
-        <v>1.044370777714139</v>
+        <v>1.105317913011364</v>
       </c>
       <c r="H6">
-        <v>0.9415476834273904</v>
+        <v>0.8819350605681819</v>
       </c>
       <c r="I6">
-        <v>0.9838603097581772</v>
+        <v>0.943957312443182</v>
       </c>
       <c r="J6">
-        <v>0.9800507345927896</v>
+        <v>0.9516563924431811</v>
       </c>
       <c r="K6">
-        <v>0.9838603097581772</v>
+        <v>0.943957312443182</v>
       </c>
       <c r="L6">
-        <v>0.9784829968923793</v>
+        <v>0.9548247428409089</v>
       </c>
       <c r="M6">
-        <v>1.028422825387738</v>
+        <v>1.075592139261363</v>
       </c>
       <c r="N6">
-        <v>1.028422825387738</v>
+        <v>1.075592139261363</v>
       </c>
       <c r="O6">
-        <v>1.033738809496538</v>
+        <v>1.085500730511363</v>
       </c>
       <c r="P6">
-        <v>1.013568653511218</v>
+        <v>1.031713863655303</v>
       </c>
       <c r="Q6">
-        <v>1.013568653511218</v>
+        <v>1.031713863655303</v>
       </c>
       <c r="R6">
-        <v>1.006141567572958</v>
+        <v>1.009774725852273</v>
       </c>
       <c r="S6">
-        <v>1.006141567572958</v>
+        <v>1.009774725852273</v>
       </c>
       <c r="T6">
-        <v>1.001112526044662</v>
+        <v>1.005675159498106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000983999952439</v>
+        <v>0.7252917870037606</v>
       </c>
       <c r="D7">
-        <v>0.9997679861834489</v>
+        <v>1.069258171774235</v>
       </c>
       <c r="E7">
-        <v>1.000983999952439</v>
+        <v>0.7252917870037606</v>
       </c>
       <c r="F7">
-        <v>0.9997314661129009</v>
+        <v>1.070169784071209</v>
       </c>
       <c r="G7">
-        <v>1.000528555973675</v>
+        <v>0.8446469194293086</v>
       </c>
       <c r="H7">
-        <v>0.9993956565152329</v>
+        <v>1.193542939692062</v>
       </c>
       <c r="I7">
-        <v>0.9997314661129009</v>
+        <v>1.070169784071209</v>
       </c>
       <c r="J7">
-        <v>0.9997573387097165</v>
+        <v>1.069523953456909</v>
       </c>
       <c r="K7">
-        <v>0.9997314661129009</v>
+        <v>1.070169784071209</v>
       </c>
       <c r="L7">
-        <v>0.9997679861834489</v>
+        <v>1.069258171774235</v>
       </c>
       <c r="M7">
-        <v>1.000375993067944</v>
+        <v>0.8972749793889978</v>
       </c>
       <c r="N7">
-        <v>1.000375993067944</v>
+        <v>0.8972749793889978</v>
       </c>
       <c r="O7">
-        <v>1.000426847369854</v>
+        <v>0.8797322927357681</v>
       </c>
       <c r="P7">
-        <v>1.000161150749596</v>
+        <v>0.9549065809497348</v>
       </c>
       <c r="Q7">
-        <v>1.000161150749596</v>
+        <v>0.9549065809497347</v>
       </c>
       <c r="R7">
-        <v>1.000053729590422</v>
+        <v>0.9837223817301031</v>
       </c>
       <c r="S7">
-        <v>1.000053729590422</v>
+        <v>0.9837223817301031</v>
       </c>
       <c r="T7">
-        <v>1.000027500574569</v>
+        <v>0.9954055925712471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002184210141624</v>
+        <v>0.7292251343968502</v>
       </c>
       <c r="D8">
-        <v>0.9994530882143737</v>
+        <v>1.068160520777079</v>
       </c>
       <c r="E8">
-        <v>1.002184210141624</v>
+        <v>0.7292251343968502</v>
       </c>
       <c r="F8">
-        <v>0.9994677116798176</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="G8">
-        <v>1.001184366862284</v>
+        <v>0.8468513304104048</v>
       </c>
       <c r="H8">
-        <v>0.9985770817652049</v>
+        <v>1.190613404104776</v>
       </c>
       <c r="I8">
-        <v>0.9994677116798176</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="J8">
-        <v>0.9994573509987476</v>
+        <v>1.068527186448965</v>
       </c>
       <c r="K8">
-        <v>0.9994677116798176</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="L8">
-        <v>0.9994530882143737</v>
+        <v>1.068160520777079</v>
       </c>
       <c r="M8">
-        <v>1.000818649177999</v>
+        <v>0.8986928275869646</v>
       </c>
       <c r="N8">
-        <v>1.000818649177999</v>
+        <v>0.8986928275869646</v>
       </c>
       <c r="O8">
-        <v>1.000940555072761</v>
+        <v>0.8814123285281114</v>
       </c>
       <c r="P8">
-        <v>1.000368336678605</v>
+        <v>0.9556012735020101</v>
       </c>
       <c r="Q8">
-        <v>1.000368336678605</v>
+        <v>0.9556012735020101</v>
       </c>
       <c r="R8">
-        <v>1.000143180428908</v>
+        <v>0.9840554964595328</v>
       </c>
       <c r="S8">
-        <v>1.000143180428908</v>
+        <v>0.9840554964595328</v>
       </c>
       <c r="T8">
-        <v>1.000053968277009</v>
+        <v>0.995465956911696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002819731120425</v>
+        <v>0.7332381637208566</v>
       </c>
       <c r="D9">
-        <v>0.9992207114048325</v>
+        <v>1.067281785164981</v>
       </c>
       <c r="E9">
-        <v>1.002819731120425</v>
+        <v>0.7332381637208566</v>
       </c>
       <c r="F9">
-        <v>0.9994528483323841</v>
+        <v>1.06820336736728</v>
       </c>
       <c r="G9">
-        <v>1.001566614873024</v>
+        <v>0.8489653943392146</v>
       </c>
       <c r="H9">
-        <v>0.9979446589617001</v>
+        <v>1.188349444394561</v>
       </c>
       <c r="I9">
-        <v>0.9994528483323841</v>
+        <v>1.06820336736728</v>
       </c>
       <c r="J9">
-        <v>0.9992883891793674</v>
+        <v>1.067550473458358</v>
       </c>
       <c r="K9">
-        <v>0.9994528483323841</v>
+        <v>1.06820336736728</v>
       </c>
       <c r="L9">
-        <v>0.9992207114048325</v>
+        <v>1.067281785164981</v>
       </c>
       <c r="M9">
-        <v>1.001020221262629</v>
+        <v>0.9002599744429187</v>
       </c>
       <c r="N9">
-        <v>1.001020221262629</v>
+        <v>0.9002599744429187</v>
       </c>
       <c r="O9">
-        <v>1.001202352466094</v>
+        <v>0.8831617810750174</v>
       </c>
       <c r="P9">
-        <v>1.000497763619214</v>
+        <v>0.9562411054177057</v>
       </c>
       <c r="Q9">
-        <v>1.000497763619214</v>
+        <v>0.9562411054177057</v>
       </c>
       <c r="R9">
-        <v>1.000236534797507</v>
+        <v>0.9842316709050992</v>
       </c>
       <c r="S9">
-        <v>1.000236534797507</v>
+        <v>0.9842316709050992</v>
       </c>
       <c r="T9">
-        <v>1.000048825645289</v>
+        <v>0.9955981047408752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006332524858342</v>
+        <v>0.737924926705222</v>
       </c>
       <c r="D10">
-        <v>0.9983489055325222</v>
+        <v>1.065236550098915</v>
       </c>
       <c r="E10">
-        <v>1.006332524858342</v>
+        <v>0.737924926705222</v>
       </c>
       <c r="F10">
-        <v>0.9985785089178593</v>
+        <v>1.068781166550775</v>
       </c>
       <c r="G10">
-        <v>1.003473422583392</v>
+        <v>0.8518808990800197</v>
       </c>
       <c r="H10">
-        <v>0.9956645035522087</v>
+        <v>1.18284181085897</v>
       </c>
       <c r="I10">
-        <v>0.9985785089178593</v>
+        <v>1.068781166550775</v>
       </c>
       <c r="J10">
-        <v>0.9984158463048881</v>
+        <v>1.066269971234445</v>
       </c>
       <c r="K10">
-        <v>0.9985785089178593</v>
+        <v>1.068781166550775</v>
       </c>
       <c r="L10">
-        <v>0.9983489055325222</v>
+        <v>1.065236550098915</v>
       </c>
       <c r="M10">
-        <v>1.002340715195432</v>
+        <v>0.9015807384020686</v>
       </c>
       <c r="N10">
-        <v>1.002340715195432</v>
+        <v>0.9015807384020686</v>
       </c>
       <c r="O10">
-        <v>1.002718284324752</v>
+        <v>0.885014125294719</v>
       </c>
       <c r="P10">
-        <v>1.001086646436241</v>
+        <v>0.9573142144516374</v>
       </c>
       <c r="Q10">
-        <v>1.001086646436241</v>
+        <v>0.9573142144516376</v>
       </c>
       <c r="R10">
-        <v>1.000459612056646</v>
+        <v>0.9851809524764219</v>
       </c>
       <c r="S10">
-        <v>1.000459612056646</v>
+        <v>0.9851809524764219</v>
       </c>
       <c r="T10">
-        <v>1.000135618624869</v>
+        <v>0.9954892207547245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.009755609257928</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="D11">
-        <v>0.9972027366632632</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="E11">
-        <v>1.009755609257928</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="F11">
-        <v>0.9982995855561868</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="G11">
-        <v>1.005466336231069</v>
+        <v>1.008129440794634</v>
       </c>
       <c r="H11">
-        <v>0.9926142823046769</v>
+        <v>0.9887725148319589</v>
       </c>
       <c r="I11">
-        <v>0.9982995855561868</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="J11">
-        <v>0.9975225160720866</v>
+        <v>0.9963684799826926</v>
       </c>
       <c r="K11">
-        <v>0.9982995855561868</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="L11">
-        <v>0.9972027366632632</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="M11">
-        <v>1.003479172960596</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="N11">
-        <v>1.003479172960596</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="O11">
-        <v>1.00414156071742</v>
+        <v>1.006044486782975</v>
       </c>
       <c r="P11">
-        <v>1.001752643825793</v>
+        <v>1.002500193137853</v>
       </c>
       <c r="Q11">
-        <v>1.001752643825793</v>
+        <v>1.002500193137852</v>
       </c>
       <c r="R11">
-        <v>1.000889379258391</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="S11">
-        <v>1.000889379258391</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="T11">
-        <v>1.000143511014202</v>
+        <v>1.000128502503807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9105796992393499</v>
+        <v>1.005624208362654</v>
       </c>
       <c r="D12">
-        <v>0.9929873492974732</v>
+        <v>0.9984381552188103</v>
       </c>
       <c r="E12">
-        <v>0.9105796992393499</v>
+        <v>1.005624208362654</v>
       </c>
       <c r="F12">
-        <v>1.075386889794298</v>
+        <v>0.9988951162439067</v>
       </c>
       <c r="G12">
-        <v>0.9696302746571999</v>
+        <v>1.00316467414086</v>
       </c>
       <c r="H12">
-        <v>0.966031681228925</v>
+        <v>0.9958125269560169</v>
       </c>
       <c r="I12">
-        <v>1.075386889794298</v>
+        <v>0.9988951162439067</v>
       </c>
       <c r="J12">
-        <v>1.017010539067367</v>
+        <v>0.9985713797972769</v>
       </c>
       <c r="K12">
-        <v>1.075386889794298</v>
+        <v>0.9988951162439067</v>
       </c>
       <c r="L12">
-        <v>0.9929873492974732</v>
+        <v>0.9984381552188103</v>
       </c>
       <c r="M12">
-        <v>0.9517835242684116</v>
+        <v>1.002031181790732</v>
       </c>
       <c r="N12">
-        <v>0.9517835242684116</v>
+        <v>1.002031181790732</v>
       </c>
       <c r="O12">
-        <v>0.9577324410646743</v>
+        <v>1.002409012574108</v>
       </c>
       <c r="P12">
-        <v>0.992984646110374</v>
+        <v>1.000985826608457</v>
       </c>
       <c r="Q12">
-        <v>0.992984646110374</v>
+        <v>1.000985826608457</v>
       </c>
       <c r="R12">
-        <v>1.013585207031355</v>
+        <v>1.000463149017319</v>
       </c>
       <c r="S12">
-        <v>1.013585207031355</v>
+        <v>1.000463149017319</v>
       </c>
       <c r="T12">
-        <v>0.9886044055474356</v>
+        <v>1.000084343453254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00267354164588</v>
+        <v>1.017768546345748</v>
       </c>
       <c r="D13">
-        <v>1.011692037474417</v>
+        <v>0.9949866934931749</v>
       </c>
       <c r="E13">
-        <v>1.00267354164588</v>
+        <v>1.017768546345748</v>
       </c>
       <c r="F13">
-        <v>0.9768606400292907</v>
+        <v>0.996701948249181</v>
       </c>
       <c r="G13">
-        <v>0.993730350242331</v>
+        <v>1.009989277351764</v>
       </c>
       <c r="H13">
-        <v>1.037326427000578</v>
+        <v>0.9866138929447835</v>
       </c>
       <c r="I13">
-        <v>0.9768606400292907</v>
+        <v>0.996701948249181</v>
       </c>
       <c r="J13">
-        <v>1.001537114277415</v>
+        <v>0.9954867667584756</v>
       </c>
       <c r="K13">
-        <v>0.9768606400292907</v>
+        <v>0.996701948249181</v>
       </c>
       <c r="L13">
-        <v>1.011692037474417</v>
+        <v>0.9949866934931749</v>
       </c>
       <c r="M13">
-        <v>1.007182789560149</v>
+        <v>1.006377619919462</v>
       </c>
       <c r="N13">
-        <v>1.007182789560149</v>
+        <v>1.006377619919462</v>
       </c>
       <c r="O13">
-        <v>1.002698643120876</v>
+        <v>1.007581505730229</v>
       </c>
       <c r="P13">
-        <v>0.997075406383196</v>
+        <v>1.003152396029368</v>
       </c>
       <c r="Q13">
-        <v>0.997075406383196</v>
+        <v>1.003152396029368</v>
       </c>
       <c r="R13">
-        <v>0.9920217147947197</v>
+        <v>1.001539784084321</v>
       </c>
       <c r="S13">
-        <v>0.9920217147947197</v>
+        <v>1.001539784084321</v>
       </c>
       <c r="T13">
-        <v>1.003970018444985</v>
+        <v>1.000257854190521</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9753406102947882</v>
+        <v>1.040178750255684</v>
       </c>
       <c r="D14">
-        <v>1.047868319287929</v>
+        <v>0.9889889465757359</v>
       </c>
       <c r="E14">
-        <v>0.9753406102947882</v>
+        <v>1.040178750255684</v>
       </c>
       <c r="F14">
-        <v>0.9308728181281832</v>
+        <v>0.9916881078108751</v>
       </c>
       <c r="G14">
-        <v>0.9595273265176854</v>
+        <v>1.022733732314157</v>
       </c>
       <c r="H14">
-        <v>1.150124568706548</v>
+        <v>0.970103611994288</v>
       </c>
       <c r="I14">
-        <v>0.9308728181281832</v>
+        <v>0.9916881078108751</v>
       </c>
       <c r="J14">
-        <v>1.013758856836757</v>
+        <v>0.9897758680749901</v>
       </c>
       <c r="K14">
-        <v>0.9308728181281832</v>
+        <v>0.9916881078108751</v>
       </c>
       <c r="L14">
-        <v>1.047868319287929</v>
+        <v>0.9889889465757359</v>
       </c>
       <c r="M14">
-        <v>1.011604464791359</v>
+        <v>1.01458384841571</v>
       </c>
       <c r="N14">
-        <v>1.011604464791359</v>
+        <v>1.01458384841571</v>
       </c>
       <c r="O14">
-        <v>0.9942454187001344</v>
+        <v>1.017300476381859</v>
       </c>
       <c r="P14">
-        <v>0.9846939159036338</v>
+        <v>1.006951934880765</v>
       </c>
       <c r="Q14">
-        <v>0.9846939159036335</v>
+        <v>1.006951934880765</v>
       </c>
       <c r="R14">
-        <v>0.971238641459771</v>
+        <v>1.003135978113293</v>
       </c>
       <c r="S14">
-        <v>0.971238641459771</v>
+        <v>1.003135978113293</v>
       </c>
       <c r="T14">
-        <v>1.012915416628648</v>
+        <v>1.000578169504289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9583838242667004</v>
+        <v>1.014405520865593</v>
       </c>
       <c r="D15">
-        <v>0.9934404279803428</v>
+        <v>0.9960158514193692</v>
       </c>
       <c r="E15">
-        <v>0.9583838242667004</v>
+        <v>1.014405520865593</v>
       </c>
       <c r="F15">
-        <v>1.041597719753493</v>
+        <v>0.9970845174701954</v>
       </c>
       <c r="G15">
-        <v>0.9877867154196398</v>
+        <v>1.008175376238889</v>
       </c>
       <c r="H15">
-        <v>0.9727108968762332</v>
+        <v>0.9891628651023457</v>
       </c>
       <c r="I15">
-        <v>1.041597719753493</v>
+        <v>0.9970845174701954</v>
       </c>
       <c r="J15">
-        <v>1.007480446150207</v>
+        <v>0.9963274156016282</v>
       </c>
       <c r="K15">
-        <v>1.041597719753493</v>
+        <v>0.9970845174701954</v>
       </c>
       <c r="L15">
-        <v>0.9934404279803428</v>
+        <v>0.9960158514193692</v>
       </c>
       <c r="M15">
-        <v>0.9759121261235216</v>
+        <v>1.005210686142481</v>
       </c>
       <c r="N15">
-        <v>0.9759121261235216</v>
+        <v>1.005210686142481</v>
       </c>
       <c r="O15">
-        <v>0.9798703225555609</v>
+        <v>1.006198916174617</v>
       </c>
       <c r="P15">
-        <v>0.9978073240001789</v>
+        <v>1.002501963251719</v>
       </c>
       <c r="Q15">
-        <v>0.9978073240001789</v>
+        <v>1.002501963251719</v>
       </c>
       <c r="R15">
-        <v>1.008754922938508</v>
+        <v>1.001147601806338</v>
       </c>
       <c r="S15">
-        <v>1.008754922938508</v>
+        <v>1.001147601806338</v>
       </c>
       <c r="T15">
-        <v>0.9935666717411027</v>
+        <v>1.000195257783003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.282196040534324</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="D16">
-        <v>0.9229500405603239</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="E16">
-        <v>1.282196040534324</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="F16">
-        <v>0.941100434701953</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="G16">
-        <v>1.159493299437899</v>
+        <v>1.01578173998079</v>
       </c>
       <c r="H16">
-        <v>0.7909210564491422</v>
+        <v>0.9790556460447278</v>
       </c>
       <c r="I16">
-        <v>0.941100434701953</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="J16">
-        <v>0.9282417020034184</v>
+        <v>0.9929115539759762</v>
       </c>
       <c r="K16">
-        <v>0.941100434701953</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="L16">
-        <v>0.9229500405603239</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="M16">
-        <v>1.102573040547324</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="N16">
-        <v>1.102573040547324</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="O16">
-        <v>1.121546460177516</v>
+        <v>1.011960055290063</v>
       </c>
       <c r="P16">
-        <v>1.048748838598867</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="Q16">
-        <v>1.048748838598867</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="R16">
-        <v>1.021836737624639</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="S16">
-        <v>1.021836737624639</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="T16">
-        <v>1.004150428947844</v>
+        <v>1.000373418761038</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.233299817165775</v>
+        <v>1.053388635163531</v>
       </c>
       <c r="D17">
-        <v>0.9383214789278924</v>
+        <v>0.9853094287970292</v>
       </c>
       <c r="E17">
-        <v>1.233299817165775</v>
+        <v>1.053388635163531</v>
       </c>
       <c r="F17">
-        <v>0.9476761185541487</v>
+        <v>0.989059414347724</v>
       </c>
       <c r="G17">
-        <v>1.130537079765486</v>
+        <v>1.030250412316816</v>
       </c>
       <c r="H17">
-        <v>0.8336380611482636</v>
+        <v>0.9600764969493667</v>
       </c>
       <c r="I17">
-        <v>0.9476761185541487</v>
+        <v>0.989059414347724</v>
       </c>
       <c r="J17">
-        <v>0.9410487799699911</v>
+        <v>0.9864027156940827</v>
       </c>
       <c r="K17">
-        <v>0.9476761185541487</v>
+        <v>0.989059414347724</v>
       </c>
       <c r="L17">
-        <v>0.9383214789278924</v>
+        <v>0.9853094287970292</v>
       </c>
       <c r="M17">
-        <v>1.085810648046833</v>
+        <v>1.01934903198028</v>
       </c>
       <c r="N17">
-        <v>1.085810648046833</v>
+        <v>1.01934903198028</v>
       </c>
       <c r="O17">
-        <v>1.100719458619718</v>
+        <v>1.022982825425792</v>
       </c>
       <c r="P17">
-        <v>1.039765804882605</v>
+        <v>1.009252492769428</v>
       </c>
       <c r="Q17">
-        <v>1.039765804882605</v>
+        <v>1.009252492769428</v>
       </c>
       <c r="R17">
-        <v>1.016743383300491</v>
+        <v>1.004204223164002</v>
       </c>
       <c r="S17">
-        <v>1.016743383300491</v>
+        <v>1.004204223164002</v>
       </c>
       <c r="T17">
-        <v>1.004086889255259</v>
+        <v>1.000747850544758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.134385806362388</v>
+        <v>1.078362653883097</v>
       </c>
       <c r="D18">
-        <v>0.9692110480496239</v>
+        <v>0.9784829968923793</v>
       </c>
       <c r="E18">
-        <v>1.134385806362388</v>
+        <v>1.078362653883097</v>
       </c>
       <c r="F18">
-        <v>0.9613599475016913</v>
+        <v>0.9838603097581772</v>
       </c>
       <c r="G18">
-        <v>1.072078748859318</v>
+        <v>1.044370777714139</v>
       </c>
       <c r="H18">
-        <v>0.919422620041489</v>
+        <v>0.9415476834273904</v>
       </c>
       <c r="I18">
-        <v>0.9613599475016913</v>
+        <v>0.9838603097581772</v>
       </c>
       <c r="J18">
-        <v>0.9669220953225713</v>
+        <v>0.9800507345927896</v>
       </c>
       <c r="K18">
-        <v>0.9613599475016913</v>
+        <v>0.9838603097581772</v>
       </c>
       <c r="L18">
-        <v>0.9692110480496239</v>
+        <v>0.9784829968923793</v>
       </c>
       <c r="M18">
-        <v>1.051798427206006</v>
+        <v>1.028422825387738</v>
       </c>
       <c r="N18">
-        <v>1.051798427206006</v>
+        <v>1.028422825387738</v>
       </c>
       <c r="O18">
-        <v>1.058558534423777</v>
+        <v>1.033738809496538</v>
       </c>
       <c r="P18">
-        <v>1.021652267304568</v>
+        <v>1.013568653511218</v>
       </c>
       <c r="Q18">
-        <v>1.021652267304568</v>
+        <v>1.013568653511218</v>
       </c>
       <c r="R18">
-        <v>1.006579187353849</v>
+        <v>1.006141567572958</v>
       </c>
       <c r="S18">
-        <v>1.006579187353849</v>
+        <v>1.006141567572958</v>
       </c>
       <c r="T18">
-        <v>1.003896711022847</v>
+        <v>1.001112526044662</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.147872605728705</v>
+        <v>1.000983999952439</v>
       </c>
       <c r="D19">
-        <v>0.9675537862027079</v>
+        <v>0.9997679861834489</v>
       </c>
       <c r="E19">
-        <v>1.147872605728705</v>
+        <v>1.000983999952439</v>
       </c>
       <c r="F19">
-        <v>0.9548626076967276</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="G19">
-        <v>1.07843494350666</v>
+        <v>1.000528555973675</v>
       </c>
       <c r="H19">
-        <v>0.9158325995250098</v>
+        <v>0.9993956565152329</v>
       </c>
       <c r="I19">
-        <v>0.9548626076967276</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="J19">
-        <v>0.9638537368574031</v>
+        <v>0.9997573387097165</v>
       </c>
       <c r="K19">
-        <v>0.9548626076967276</v>
+        <v>0.9997314661129009</v>
       </c>
       <c r="L19">
-        <v>0.9675537862027079</v>
+        <v>0.9997679861834489</v>
       </c>
       <c r="M19">
-        <v>1.057713195965706</v>
+        <v>1.000375993067944</v>
       </c>
       <c r="N19">
-        <v>1.057713195965706</v>
+        <v>1.000375993067944</v>
       </c>
       <c r="O19">
-        <v>1.064620445146024</v>
+        <v>1.000426847369854</v>
       </c>
       <c r="P19">
-        <v>1.023429666542713</v>
+        <v>1.000161150749596</v>
       </c>
       <c r="Q19">
-        <v>1.023429666542713</v>
+        <v>1.000161150749596</v>
       </c>
       <c r="R19">
-        <v>1.006287901831217</v>
+        <v>1.000053729590422</v>
       </c>
       <c r="S19">
-        <v>1.006287901831217</v>
+        <v>1.000053729590422</v>
       </c>
       <c r="T19">
-        <v>1.004735046586202</v>
+        <v>1.000027500574569</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000204314289278</v>
+        <v>1.002184210141624</v>
       </c>
       <c r="D20">
-        <v>1.000055254817863</v>
+        <v>0.9994530882143737</v>
       </c>
       <c r="E20">
-        <v>1.000204314289278</v>
+        <v>1.002184210141624</v>
       </c>
       <c r="F20">
-        <v>0.9997591186580943</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="G20">
-        <v>1.000041281561376</v>
+        <v>1.001184366862284</v>
       </c>
       <c r="H20">
-        <v>1.000208321903947</v>
+        <v>0.9985770817652049</v>
       </c>
       <c r="I20">
-        <v>0.9997591186580943</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="J20">
-        <v>0.99996891753197</v>
+        <v>0.9994573509987476</v>
       </c>
       <c r="K20">
-        <v>0.9997591186580943</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="L20">
-        <v>1.000055254817863</v>
+        <v>0.9994530882143737</v>
       </c>
       <c r="M20">
-        <v>1.00012978455357</v>
+        <v>1.000818649177999</v>
       </c>
       <c r="N20">
-        <v>1.00012978455357</v>
+        <v>1.000818649177999</v>
       </c>
       <c r="O20">
-        <v>1.000100283556172</v>
+        <v>1.000940555072761</v>
       </c>
       <c r="P20">
-        <v>1.000006229255078</v>
+        <v>1.000368336678605</v>
       </c>
       <c r="Q20">
-        <v>1.000006229255078</v>
+        <v>1.000368336678605</v>
       </c>
       <c r="R20">
-        <v>0.9999444516058322</v>
+        <v>1.000143180428908</v>
       </c>
       <c r="S20">
-        <v>0.9999444516058322</v>
+        <v>1.000143180428908</v>
       </c>
       <c r="T20">
-        <v>1.000039534793755</v>
+        <v>1.000053968277009</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001166105881404</v>
+        <v>1.002819731120425</v>
       </c>
       <c r="D21">
-        <v>0.9996069840391398</v>
+        <v>0.9992207114048325</v>
       </c>
       <c r="E21">
-        <v>1.001166105881404</v>
+        <v>1.002819731120425</v>
       </c>
       <c r="F21">
-        <v>0.9998887544351591</v>
+        <v>0.9994528483323841</v>
       </c>
       <c r="G21">
-        <v>1.000710383723097</v>
+        <v>1.001566614873024</v>
       </c>
       <c r="H21">
-        <v>0.9988915238186244</v>
+        <v>0.9979446589617001</v>
       </c>
       <c r="I21">
-        <v>0.9998887544351591</v>
+        <v>0.9994528483323841</v>
       </c>
       <c r="J21">
-        <v>0.9996891324211854</v>
+        <v>0.9992883891793674</v>
       </c>
       <c r="K21">
-        <v>0.9998887544351591</v>
+        <v>0.9994528483323841</v>
       </c>
       <c r="L21">
-        <v>0.9996069840391398</v>
+        <v>0.9992207114048325</v>
       </c>
       <c r="M21">
-        <v>1.000386544960272</v>
+        <v>1.001020221262629</v>
       </c>
       <c r="N21">
-        <v>1.000386544960272</v>
+        <v>1.001020221262629</v>
       </c>
       <c r="O21">
-        <v>1.000494491214547</v>
+        <v>1.001202352466094</v>
       </c>
       <c r="P21">
-        <v>1.000220614785234</v>
+        <v>1.000497763619214</v>
       </c>
       <c r="Q21">
-        <v>1.000220614785235</v>
+        <v>1.000497763619214</v>
       </c>
       <c r="R21">
-        <v>1.000137649697716</v>
+        <v>1.000236534797507</v>
       </c>
       <c r="S21">
-        <v>1.000137649697716</v>
+        <v>1.000236534797507</v>
       </c>
       <c r="T21">
-        <v>0.9999921473864349</v>
+        <v>1.000048825645289</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.004779713775969</v>
+        <v>1.006332524858342</v>
       </c>
       <c r="D22">
-        <v>0.9989422385280405</v>
+        <v>0.9983489055325222</v>
       </c>
       <c r="E22">
-        <v>1.004779713775969</v>
+        <v>1.006332524858342</v>
       </c>
       <c r="F22">
-        <v>0.9985620000645227</v>
+        <v>0.9985785089178593</v>
       </c>
       <c r="G22">
-        <v>1.002534755180529</v>
+        <v>1.003473422583392</v>
       </c>
       <c r="H22">
-        <v>0.9972625140171247</v>
+        <v>0.9956645035522087</v>
       </c>
       <c r="I22">
-        <v>0.9985620000645227</v>
+        <v>0.9985785089178593</v>
       </c>
       <c r="J22">
-        <v>0.9988313796366688</v>
+        <v>0.9984158463048881</v>
       </c>
       <c r="K22">
-        <v>0.9985620000645227</v>
+        <v>0.9985785089178593</v>
       </c>
       <c r="L22">
-        <v>0.9989422385280405</v>
+        <v>0.9983489055325222</v>
       </c>
       <c r="M22">
-        <v>1.001860976152005</v>
+        <v>1.002340715195432</v>
       </c>
       <c r="N22">
-        <v>1.001860976152005</v>
+        <v>1.002340715195432</v>
       </c>
       <c r="O22">
-        <v>1.002085569161513</v>
+        <v>1.002718284324752</v>
       </c>
       <c r="P22">
-        <v>1.000761317456177</v>
+        <v>1.001086646436241</v>
       </c>
       <c r="Q22">
-        <v>1.000761317456177</v>
+        <v>1.001086646436241</v>
       </c>
       <c r="R22">
-        <v>1.000211488108264</v>
+        <v>1.000459612056646</v>
       </c>
       <c r="S22">
-        <v>1.000211488108264</v>
+        <v>1.000459612056646</v>
       </c>
       <c r="T22">
-        <v>1.000152100200476</v>
+        <v>1.000135618624869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.009755609257928</v>
+      </c>
+      <c r="D23">
+        <v>0.9972027366632632</v>
+      </c>
+      <c r="E23">
+        <v>1.009755609257928</v>
+      </c>
+      <c r="F23">
+        <v>0.9982995855561868</v>
+      </c>
+      <c r="G23">
+        <v>1.005466336231069</v>
+      </c>
+      <c r="H23">
+        <v>0.9926142823046769</v>
+      </c>
+      <c r="I23">
+        <v>0.9982995855561868</v>
+      </c>
+      <c r="J23">
+        <v>0.9975225160720866</v>
+      </c>
+      <c r="K23">
+        <v>0.9982995855561868</v>
+      </c>
+      <c r="L23">
+        <v>0.9972027366632632</v>
+      </c>
+      <c r="M23">
+        <v>1.003479172960596</v>
+      </c>
+      <c r="N23">
+        <v>1.003479172960596</v>
+      </c>
+      <c r="O23">
+        <v>1.00414156071742</v>
+      </c>
+      <c r="P23">
+        <v>1.001752643825793</v>
+      </c>
+      <c r="Q23">
+        <v>1.001752643825793</v>
+      </c>
+      <c r="R23">
+        <v>1.000889379258391</v>
+      </c>
+      <c r="S23">
+        <v>1.000889379258391</v>
+      </c>
+      <c r="T23">
+        <v>1.000143511014202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9105796992393499</v>
+      </c>
+      <c r="D24">
+        <v>0.9929873492974732</v>
+      </c>
+      <c r="E24">
+        <v>0.9105796992393499</v>
+      </c>
+      <c r="F24">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="G24">
+        <v>0.9696302746571999</v>
+      </c>
+      <c r="H24">
+        <v>0.966031681228925</v>
+      </c>
+      <c r="I24">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="J24">
+        <v>1.017010539067367</v>
+      </c>
+      <c r="K24">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="L24">
+        <v>0.9929873492974732</v>
+      </c>
+      <c r="M24">
+        <v>0.9517835242684116</v>
+      </c>
+      <c r="N24">
+        <v>0.9517835242684116</v>
+      </c>
+      <c r="O24">
+        <v>0.9577324410646743</v>
+      </c>
+      <c r="P24">
+        <v>0.992984646110374</v>
+      </c>
+      <c r="Q24">
+        <v>0.992984646110374</v>
+      </c>
+      <c r="R24">
+        <v>1.013585207031355</v>
+      </c>
+      <c r="S24">
+        <v>1.013585207031355</v>
+      </c>
+      <c r="T24">
+        <v>0.9886044055474356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.00267354164588</v>
+      </c>
+      <c r="D25">
+        <v>1.011692037474417</v>
+      </c>
+      <c r="E25">
+        <v>1.00267354164588</v>
+      </c>
+      <c r="F25">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="G25">
+        <v>0.993730350242331</v>
+      </c>
+      <c r="H25">
+        <v>1.037326427000578</v>
+      </c>
+      <c r="I25">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="J25">
+        <v>1.001537114277415</v>
+      </c>
+      <c r="K25">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="L25">
+        <v>1.011692037474417</v>
+      </c>
+      <c r="M25">
+        <v>1.007182789560149</v>
+      </c>
+      <c r="N25">
+        <v>1.007182789560149</v>
+      </c>
+      <c r="O25">
+        <v>1.002698643120876</v>
+      </c>
+      <c r="P25">
+        <v>0.997075406383196</v>
+      </c>
+      <c r="Q25">
+        <v>0.997075406383196</v>
+      </c>
+      <c r="R25">
+        <v>0.9920217147947197</v>
+      </c>
+      <c r="S25">
+        <v>0.9920217147947197</v>
+      </c>
+      <c r="T25">
+        <v>1.003970018444985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9753406102947882</v>
+      </c>
+      <c r="D26">
+        <v>1.047868319287929</v>
+      </c>
+      <c r="E26">
+        <v>0.9753406102947882</v>
+      </c>
+      <c r="F26">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="G26">
+        <v>0.9595273265176854</v>
+      </c>
+      <c r="H26">
+        <v>1.150124568706548</v>
+      </c>
+      <c r="I26">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="J26">
+        <v>1.013758856836757</v>
+      </c>
+      <c r="K26">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="L26">
+        <v>1.047868319287929</v>
+      </c>
+      <c r="M26">
+        <v>1.011604464791359</v>
+      </c>
+      <c r="N26">
+        <v>1.011604464791359</v>
+      </c>
+      <c r="O26">
+        <v>0.9942454187001344</v>
+      </c>
+      <c r="P26">
+        <v>0.9846939159036338</v>
+      </c>
+      <c r="Q26">
+        <v>0.9846939159036335</v>
+      </c>
+      <c r="R26">
+        <v>0.971238641459771</v>
+      </c>
+      <c r="S26">
+        <v>0.971238641459771</v>
+      </c>
+      <c r="T26">
+        <v>1.012915416628648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9583838242667004</v>
+      </c>
+      <c r="D27">
+        <v>0.9934404279803428</v>
+      </c>
+      <c r="E27">
+        <v>0.9583838242667004</v>
+      </c>
+      <c r="F27">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="G27">
+        <v>0.9877867154196398</v>
+      </c>
+      <c r="H27">
+        <v>0.9727108968762332</v>
+      </c>
+      <c r="I27">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="J27">
+        <v>1.007480446150207</v>
+      </c>
+      <c r="K27">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="L27">
+        <v>0.9934404279803428</v>
+      </c>
+      <c r="M27">
+        <v>0.9759121261235216</v>
+      </c>
+      <c r="N27">
+        <v>0.9759121261235216</v>
+      </c>
+      <c r="O27">
+        <v>0.9798703225555609</v>
+      </c>
+      <c r="P27">
+        <v>0.9978073240001789</v>
+      </c>
+      <c r="Q27">
+        <v>0.9978073240001789</v>
+      </c>
+      <c r="R27">
+        <v>1.008754922938508</v>
+      </c>
+      <c r="S27">
+        <v>1.008754922938508</v>
+      </c>
+      <c r="T27">
+        <v>0.9935666717411027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.282196040534324</v>
+      </c>
+      <c r="D28">
+        <v>0.9229500405603239</v>
+      </c>
+      <c r="E28">
+        <v>1.282196040534324</v>
+      </c>
+      <c r="F28">
+        <v>0.941100434701953</v>
+      </c>
+      <c r="G28">
+        <v>1.159493299437899</v>
+      </c>
+      <c r="H28">
+        <v>0.7909210564491422</v>
+      </c>
+      <c r="I28">
+        <v>0.941100434701953</v>
+      </c>
+      <c r="J28">
+        <v>0.9282417020034184</v>
+      </c>
+      <c r="K28">
+        <v>0.941100434701953</v>
+      </c>
+      <c r="L28">
+        <v>0.9229500405603239</v>
+      </c>
+      <c r="M28">
+        <v>1.102573040547324</v>
+      </c>
+      <c r="N28">
+        <v>1.102573040547324</v>
+      </c>
+      <c r="O28">
+        <v>1.121546460177516</v>
+      </c>
+      <c r="P28">
+        <v>1.048748838598867</v>
+      </c>
+      <c r="Q28">
+        <v>1.048748838598867</v>
+      </c>
+      <c r="R28">
+        <v>1.021836737624639</v>
+      </c>
+      <c r="S28">
+        <v>1.021836737624639</v>
+      </c>
+      <c r="T28">
+        <v>1.004150428947844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.233299817165775</v>
+      </c>
+      <c r="D29">
+        <v>0.9383214789278924</v>
+      </c>
+      <c r="E29">
+        <v>1.233299817165775</v>
+      </c>
+      <c r="F29">
+        <v>0.9476761185541487</v>
+      </c>
+      <c r="G29">
+        <v>1.130537079765486</v>
+      </c>
+      <c r="H29">
+        <v>0.8336380611482636</v>
+      </c>
+      <c r="I29">
+        <v>0.9476761185541487</v>
+      </c>
+      <c r="J29">
+        <v>0.9410487799699911</v>
+      </c>
+      <c r="K29">
+        <v>0.9476761185541487</v>
+      </c>
+      <c r="L29">
+        <v>0.9383214789278924</v>
+      </c>
+      <c r="M29">
+        <v>1.085810648046833</v>
+      </c>
+      <c r="N29">
+        <v>1.085810648046833</v>
+      </c>
+      <c r="O29">
+        <v>1.100719458619718</v>
+      </c>
+      <c r="P29">
+        <v>1.039765804882605</v>
+      </c>
+      <c r="Q29">
+        <v>1.039765804882605</v>
+      </c>
+      <c r="R29">
+        <v>1.016743383300491</v>
+      </c>
+      <c r="S29">
+        <v>1.016743383300491</v>
+      </c>
+      <c r="T29">
+        <v>1.004086889255259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.134385806362388</v>
+      </c>
+      <c r="D30">
+        <v>0.9692110480496239</v>
+      </c>
+      <c r="E30">
+        <v>1.134385806362388</v>
+      </c>
+      <c r="F30">
+        <v>0.9613599475016913</v>
+      </c>
+      <c r="G30">
+        <v>1.072078748859318</v>
+      </c>
+      <c r="H30">
+        <v>0.919422620041489</v>
+      </c>
+      <c r="I30">
+        <v>0.9613599475016913</v>
+      </c>
+      <c r="J30">
+        <v>0.9669220953225713</v>
+      </c>
+      <c r="K30">
+        <v>0.9613599475016913</v>
+      </c>
+      <c r="L30">
+        <v>0.9692110480496239</v>
+      </c>
+      <c r="M30">
+        <v>1.051798427206006</v>
+      </c>
+      <c r="N30">
+        <v>1.051798427206006</v>
+      </c>
+      <c r="O30">
+        <v>1.058558534423777</v>
+      </c>
+      <c r="P30">
+        <v>1.021652267304568</v>
+      </c>
+      <c r="Q30">
+        <v>1.021652267304568</v>
+      </c>
+      <c r="R30">
+        <v>1.006579187353849</v>
+      </c>
+      <c r="S30">
+        <v>1.006579187353849</v>
+      </c>
+      <c r="T30">
+        <v>1.003896711022847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.147872605728705</v>
+      </c>
+      <c r="D31">
+        <v>0.9675537862027079</v>
+      </c>
+      <c r="E31">
+        <v>1.147872605728705</v>
+      </c>
+      <c r="F31">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="G31">
+        <v>1.07843494350666</v>
+      </c>
+      <c r="H31">
+        <v>0.9158325995250098</v>
+      </c>
+      <c r="I31">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="J31">
+        <v>0.9638537368574031</v>
+      </c>
+      <c r="K31">
+        <v>0.9548626076967276</v>
+      </c>
+      <c r="L31">
+        <v>0.9675537862027079</v>
+      </c>
+      <c r="M31">
+        <v>1.057713195965706</v>
+      </c>
+      <c r="N31">
+        <v>1.057713195965706</v>
+      </c>
+      <c r="O31">
+        <v>1.064620445146024</v>
+      </c>
+      <c r="P31">
+        <v>1.023429666542713</v>
+      </c>
+      <c r="Q31">
+        <v>1.023429666542713</v>
+      </c>
+      <c r="R31">
+        <v>1.006287901831217</v>
+      </c>
+      <c r="S31">
+        <v>1.006287901831217</v>
+      </c>
+      <c r="T31">
+        <v>1.004735046586202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.320336962328767</v>
+      </c>
+      <c r="D32">
+        <v>0.9086469157534247</v>
+      </c>
+      <c r="E32">
+        <v>1.320336962328767</v>
+      </c>
+      <c r="F32">
+        <v>0.9403982561643832</v>
+      </c>
+      <c r="G32">
+        <v>1.183216402328767</v>
+      </c>
+      <c r="H32">
+        <v>0.7509090613698632</v>
+      </c>
+      <c r="I32">
+        <v>0.9403982561643832</v>
+      </c>
+      <c r="J32">
+        <v>0.917903867945206</v>
+      </c>
+      <c r="K32">
+        <v>0.9403982561643832</v>
+      </c>
+      <c r="L32">
+        <v>0.9086469157534247</v>
+      </c>
+      <c r="M32">
+        <v>1.114491939041096</v>
+      </c>
+      <c r="N32">
+        <v>1.114491939041096</v>
+      </c>
+      <c r="O32">
+        <v>1.13740009347032</v>
+      </c>
+      <c r="P32">
+        <v>1.056460711415525</v>
+      </c>
+      <c r="Q32">
+        <v>1.056460711415525</v>
+      </c>
+      <c r="R32">
+        <v>1.02744509760274</v>
+      </c>
+      <c r="S32">
+        <v>1.02744509760274</v>
+      </c>
+      <c r="T32">
+        <v>1.003568577648402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9411247163157893</v>
+      </c>
+      <c r="D33">
+        <v>1.049972158421053</v>
+      </c>
+      <c r="E33">
+        <v>0.9411247163157893</v>
+      </c>
+      <c r="F33">
+        <v>0.9565799573684211</v>
+      </c>
+      <c r="G33">
+        <v>0.9375689689473686</v>
+      </c>
+      <c r="H33">
+        <v>1.165946744210526</v>
+      </c>
+      <c r="I33">
+        <v>0.9565799573684211</v>
+      </c>
+      <c r="J33">
+        <v>1.02274412</v>
+      </c>
+      <c r="K33">
+        <v>0.9565799573684211</v>
+      </c>
+      <c r="L33">
+        <v>1.049972158421053</v>
+      </c>
+      <c r="M33">
+        <v>0.9955484373684211</v>
+      </c>
+      <c r="N33">
+        <v>0.9955484373684211</v>
+      </c>
+      <c r="O33">
+        <v>0.976221947894737</v>
+      </c>
+      <c r="P33">
+        <v>0.9825589440350878</v>
+      </c>
+      <c r="Q33">
+        <v>0.9825589440350878</v>
+      </c>
+      <c r="R33">
+        <v>0.9760641973684211</v>
+      </c>
+      <c r="S33">
+        <v>0.9760641973684211</v>
+      </c>
+      <c r="T33">
+        <v>1.01232277754386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8132176789473686</v>
+      </c>
+      <c r="D34">
+        <v>1.046321131052631</v>
+      </c>
+      <c r="E34">
+        <v>0.8132176789473686</v>
+      </c>
+      <c r="F34">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="G34">
+        <v>0.8934591215789474</v>
+      </c>
+      <c r="H34">
+        <v>1.132142987368421</v>
+      </c>
+      <c r="I34">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="J34">
+        <v>1.047406860526316</v>
+      </c>
+      <c r="K34">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="L34">
+        <v>1.046321131052631</v>
+      </c>
+      <c r="M34">
+        <v>0.929769405</v>
+      </c>
+      <c r="N34">
+        <v>0.929769405</v>
+      </c>
+      <c r="O34">
+        <v>0.9176659771929825</v>
+      </c>
+      <c r="P34">
+        <v>0.9698613257894738</v>
+      </c>
+      <c r="Q34">
+        <v>0.9698613257894738</v>
+      </c>
+      <c r="R34">
+        <v>0.9899072861842106</v>
+      </c>
+      <c r="S34">
+        <v>0.9899072861842106</v>
+      </c>
+      <c r="T34">
+        <v>0.9970988244736843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.545458946392644</v>
+      </c>
+      <c r="D35">
+        <v>0.8806612137790144</v>
+      </c>
+      <c r="E35">
+        <v>1.545458946392644</v>
+      </c>
+      <c r="F35">
+        <v>0.8328522416493822</v>
+      </c>
+      <c r="G35">
+        <v>1.289151800475794</v>
+      </c>
+      <c r="H35">
+        <v>0.69049861318718</v>
+      </c>
+      <c r="I35">
+        <v>0.8328522416493822</v>
+      </c>
+      <c r="J35">
+        <v>0.8667227375440442</v>
+      </c>
+      <c r="K35">
+        <v>0.8328522416493822</v>
+      </c>
+      <c r="L35">
+        <v>0.8806612137790144</v>
+      </c>
+      <c r="M35">
+        <v>1.213060080085829</v>
+      </c>
+      <c r="N35">
+        <v>1.213060080085829</v>
+      </c>
+      <c r="O35">
+        <v>1.238423986882484</v>
+      </c>
+      <c r="P35">
+        <v>1.086324133940347</v>
+      </c>
+      <c r="Q35">
+        <v>1.086324133940347</v>
+      </c>
+      <c r="R35">
+        <v>1.022956160867606</v>
+      </c>
+      <c r="S35">
+        <v>1.022956160867606</v>
+      </c>
+      <c r="T35">
+        <v>1.017557592171343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000204314289278</v>
+      </c>
+      <c r="D36">
+        <v>1.000055254817863</v>
+      </c>
+      <c r="E36">
+        <v>1.000204314289278</v>
+      </c>
+      <c r="F36">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="G36">
+        <v>1.000041281561376</v>
+      </c>
+      <c r="H36">
+        <v>1.000208321903947</v>
+      </c>
+      <c r="I36">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="J36">
+        <v>0.99996891753197</v>
+      </c>
+      <c r="K36">
+        <v>0.9997591186580943</v>
+      </c>
+      <c r="L36">
+        <v>1.000055254817863</v>
+      </c>
+      <c r="M36">
+        <v>1.00012978455357</v>
+      </c>
+      <c r="N36">
+        <v>1.00012978455357</v>
+      </c>
+      <c r="O36">
+        <v>1.000100283556172</v>
+      </c>
+      <c r="P36">
+        <v>1.000006229255078</v>
+      </c>
+      <c r="Q36">
+        <v>1.000006229255078</v>
+      </c>
+      <c r="R36">
+        <v>0.9999444516058322</v>
+      </c>
+      <c r="S36">
+        <v>0.9999444516058322</v>
+      </c>
+      <c r="T36">
+        <v>1.000039534793755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001166105881404</v>
+      </c>
+      <c r="D37">
+        <v>0.9996069840391398</v>
+      </c>
+      <c r="E37">
+        <v>1.001166105881404</v>
+      </c>
+      <c r="F37">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="G37">
+        <v>1.000710383723097</v>
+      </c>
+      <c r="H37">
+        <v>0.9988915238186244</v>
+      </c>
+      <c r="I37">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="J37">
+        <v>0.9996891324211854</v>
+      </c>
+      <c r="K37">
+        <v>0.9998887544351591</v>
+      </c>
+      <c r="L37">
+        <v>0.9996069840391398</v>
+      </c>
+      <c r="M37">
+        <v>1.000386544960272</v>
+      </c>
+      <c r="N37">
+        <v>1.000386544960272</v>
+      </c>
+      <c r="O37">
+        <v>1.000494491214547</v>
+      </c>
+      <c r="P37">
+        <v>1.000220614785234</v>
+      </c>
+      <c r="Q37">
+        <v>1.000220614785235</v>
+      </c>
+      <c r="R37">
+        <v>1.000137649697716</v>
+      </c>
+      <c r="S37">
+        <v>1.000137649697716</v>
+      </c>
+      <c r="T37">
+        <v>0.9999921473864349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.004779713775969</v>
+      </c>
+      <c r="D38">
+        <v>0.9989422385280405</v>
+      </c>
+      <c r="E38">
+        <v>1.004779713775969</v>
+      </c>
+      <c r="F38">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="G38">
+        <v>1.002534755180529</v>
+      </c>
+      <c r="H38">
+        <v>0.9972625140171247</v>
+      </c>
+      <c r="I38">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="J38">
+        <v>0.9988313796366688</v>
+      </c>
+      <c r="K38">
+        <v>0.9985620000645227</v>
+      </c>
+      <c r="L38">
+        <v>0.9989422385280405</v>
+      </c>
+      <c r="M38">
+        <v>1.001860976152005</v>
+      </c>
+      <c r="N38">
+        <v>1.001860976152005</v>
+      </c>
+      <c r="O38">
+        <v>1.002085569161513</v>
+      </c>
+      <c r="P38">
+        <v>1.000761317456177</v>
+      </c>
+      <c r="Q38">
+        <v>1.000761317456177</v>
+      </c>
+      <c r="R38">
+        <v>1.000211488108264</v>
+      </c>
+      <c r="S38">
+        <v>1.000211488108264</v>
+      </c>
+      <c r="T38">
+        <v>1.000152100200476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.011541277023999</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9976833655361981</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.011541277023999</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9961091628473799</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.005954575436356</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9941732124117081</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9961091628473799</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9972244112570736</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9961091628473799</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9976833655361981</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.004612321280098</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.004612321280098</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.005059739332184</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001777935135859</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001777935135859</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000360742063739</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000360742063739</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000447667418786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9211038995487866</v>
+      </c>
+      <c r="D40">
+        <v>1.019636736292879</v>
+      </c>
+      <c r="E40">
+        <v>0.9211038995487866</v>
+      </c>
+      <c r="F40">
+        <v>1.020700607562874</v>
+      </c>
+      <c r="G40">
+        <v>0.9556226449985453</v>
+      </c>
+      <c r="H40">
+        <v>1.054160540248977</v>
+      </c>
+      <c r="I40">
+        <v>1.020700607562874</v>
+      </c>
+      <c r="J40">
+        <v>1.01994690416856</v>
+      </c>
+      <c r="K40">
+        <v>1.020700607562874</v>
+      </c>
+      <c r="L40">
+        <v>1.019636736292879</v>
+      </c>
+      <c r="M40">
+        <v>0.9703703179208326</v>
+      </c>
+      <c r="N40">
+        <v>0.9703703179208326</v>
+      </c>
+      <c r="O40">
+        <v>0.9654544269467369</v>
+      </c>
+      <c r="P40">
+        <v>0.9871470811348463</v>
+      </c>
+      <c r="Q40">
+        <v>0.9871470811348463</v>
+      </c>
+      <c r="R40">
+        <v>0.9955354627418531</v>
+      </c>
+      <c r="S40">
+        <v>0.9955354627418531</v>
+      </c>
+      <c r="T40">
+        <v>0.9985285554701037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999816385386486</v>
+      </c>
+      <c r="D41">
+        <v>0.9956441513082034</v>
+      </c>
+      <c r="E41">
+        <v>0.9999816385386486</v>
+      </c>
+      <c r="F41">
+        <v>1.00769508435272</v>
+      </c>
+      <c r="G41">
+        <v>1.003097247314993</v>
+      </c>
+      <c r="H41">
+        <v>0.9853570843160618</v>
+      </c>
+      <c r="I41">
+        <v>1.00769508435272</v>
+      </c>
+      <c r="J41">
+        <v>0.9991575414757186</v>
+      </c>
+      <c r="K41">
+        <v>1.00769508435272</v>
+      </c>
+      <c r="L41">
+        <v>0.9956441513082034</v>
+      </c>
+      <c r="M41">
+        <v>0.997812894923426</v>
+      </c>
+      <c r="N41">
+        <v>0.997812894923426</v>
+      </c>
+      <c r="O41">
+        <v>0.9995743457206148</v>
+      </c>
+      <c r="P41">
+        <v>1.001106958066524</v>
+      </c>
+      <c r="Q41">
+        <v>1.001106958066524</v>
+      </c>
+      <c r="R41">
+        <v>1.002753989638073</v>
+      </c>
+      <c r="S41">
+        <v>1.002753989638073</v>
+      </c>
+      <c r="T41">
+        <v>0.9984887912177242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.168722935455315</v>
+      </c>
+      <c r="D42">
+        <v>0.9628407576728287</v>
+      </c>
+      <c r="E42">
+        <v>1.168722935455315</v>
+      </c>
+      <c r="F42">
+        <v>0.9477687917854781</v>
+      </c>
+      <c r="G42">
+        <v>1.091234556179249</v>
+      </c>
+      <c r="H42">
+        <v>0.8995738140664974</v>
+      </c>
+      <c r="I42">
+        <v>0.9477687917854781</v>
+      </c>
+      <c r="J42">
+        <v>0.9584466001240043</v>
+      </c>
+      <c r="K42">
+        <v>0.9477687917854781</v>
+      </c>
+      <c r="L42">
+        <v>0.9628407576728287</v>
+      </c>
+      <c r="M42">
+        <v>1.065781846564072</v>
+      </c>
+      <c r="N42">
+        <v>1.065781846564072</v>
+      </c>
+      <c r="O42">
+        <v>1.074266083102464</v>
+      </c>
+      <c r="P42">
+        <v>1.026444161637874</v>
+      </c>
+      <c r="Q42">
+        <v>1.026444161637874</v>
+      </c>
+      <c r="R42">
+        <v>1.006775319174775</v>
+      </c>
+      <c r="S42">
+        <v>1.006775319174775</v>
+      </c>
+      <c r="T42">
+        <v>1.004764575880562</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9970845174701954</v>
+        <v>1.002184210141624</v>
       </c>
       <c r="D3">
-        <v>1.014405520865593</v>
+        <v>0.9994530882143737</v>
       </c>
       <c r="E3">
-        <v>0.9960158514193692</v>
+        <v>1.002184210141624</v>
       </c>
       <c r="F3">
-        <v>0.9970845174701954</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="G3">
-        <v>0.9891628651023457</v>
+        <v>1.001184366862284</v>
       </c>
       <c r="H3">
-        <v>1.008175376238889</v>
+        <v>0.9985770817652049</v>
       </c>
       <c r="I3">
-        <v>0.9963274156016281</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="J3">
-        <v>1.014405520865593</v>
+        <v>0.9994573509987476</v>
       </c>
       <c r="K3">
-        <v>0.9970845174701954</v>
+        <v>0.9994677116798176</v>
       </c>
       <c r="L3">
-        <v>0.9960158514193692</v>
+        <v>0.9994530882143737</v>
       </c>
       <c r="M3">
-        <v>1.005210686142481</v>
+        <v>1.000818649177999</v>
       </c>
       <c r="N3">
-        <v>1.005210686142481</v>
+        <v>1.000818649177999</v>
       </c>
       <c r="O3">
-        <v>1.006198916174617</v>
+        <v>1.000940555072761</v>
       </c>
       <c r="P3">
-        <v>1.002501963251719</v>
+        <v>1.000368336678605</v>
       </c>
       <c r="Q3">
-        <v>1.002501963251719</v>
+        <v>1.000368336678605</v>
       </c>
       <c r="R3">
-        <v>1.001147601806338</v>
+        <v>1.000143180428908</v>
       </c>
       <c r="S3">
-        <v>1.001147601806338</v>
+        <v>1.000143180428908</v>
       </c>
       <c r="T3">
-        <v>1.000195257783003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000053968277009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9943931466753338</v>
+        <v>0.9211038995487866</v>
       </c>
       <c r="D4">
-        <v>1.027796582347478</v>
+        <v>1.019636736292879</v>
       </c>
       <c r="E4">
-        <v>0.9923018435419203</v>
+        <v>0.9211038995487866</v>
       </c>
       <c r="F4">
-        <v>0.9943931466753338</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="G4">
-        <v>0.9790556460447278</v>
+        <v>0.9556226449985453</v>
       </c>
       <c r="H4">
-        <v>1.01578173998079</v>
+        <v>1.054160540248977</v>
       </c>
       <c r="I4">
-        <v>0.9929115539759762</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="J4">
-        <v>1.027796582347478</v>
+        <v>1.01994690416856</v>
       </c>
       <c r="K4">
-        <v>0.9943931466753338</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="L4">
-        <v>0.9923018435419203</v>
+        <v>1.019636736292879</v>
       </c>
       <c r="M4">
-        <v>1.010049212944699</v>
+        <v>0.9703703179208326</v>
       </c>
       <c r="N4">
-        <v>1.010049212944699</v>
+        <v>0.9703703179208326</v>
       </c>
       <c r="O4">
-        <v>1.011960055290063</v>
+        <v>0.9654544269467369</v>
       </c>
       <c r="P4">
-        <v>1.004830524188244</v>
+        <v>0.9871470811348463</v>
       </c>
       <c r="Q4">
-        <v>1.004830524188244</v>
+        <v>0.9871470811348463</v>
       </c>
       <c r="R4">
-        <v>1.002221179810017</v>
+        <v>0.9955354627418531</v>
       </c>
       <c r="S4">
-        <v>1.002221179810017</v>
+        <v>0.9955354627418531</v>
       </c>
       <c r="T4">
-        <v>1.000373418761038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9985285554701037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.989059414347724</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="D5">
-        <v>1.053388635163531</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="E5">
-        <v>0.9853094287970292</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="F5">
-        <v>0.989059414347724</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="G5">
-        <v>0.9600764969493667</v>
+        <v>1.083443997543228</v>
       </c>
       <c r="H5">
-        <v>1.030250412316816</v>
+        <v>0.9070916007132552</v>
       </c>
       <c r="I5">
-        <v>0.9864027156940827</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="J5">
-        <v>1.053388635163531</v>
+        <v>0.9616878653746387</v>
       </c>
       <c r="K5">
-        <v>0.989059414347724</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="L5">
-        <v>0.9853094287970292</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="M5">
-        <v>1.01934903198028</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="N5">
-        <v>1.01934903198028</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="O5">
-        <v>1.022982825425792</v>
+        <v>1.067887120809321</v>
       </c>
       <c r="P5">
-        <v>1.009252492769428</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="Q5">
-        <v>1.009252492769428</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="R5">
-        <v>1.004204223164002</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="S5">
-        <v>1.004204223164002</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="T5">
-        <v>1.000747850544758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.004565642395534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9838603097581772</v>
+        <v>1.545458946392644</v>
       </c>
       <c r="D6">
-        <v>1.078362653883097</v>
+        <v>0.8806612137790144</v>
       </c>
       <c r="E6">
-        <v>0.9784829968923793</v>
+        <v>1.545458946392644</v>
       </c>
       <c r="F6">
-        <v>0.9838603097581772</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="G6">
-        <v>0.9415476834273904</v>
+        <v>1.289151800475794</v>
       </c>
       <c r="H6">
-        <v>1.044370777714139</v>
+        <v>0.69049861318718</v>
       </c>
       <c r="I6">
-        <v>0.9800507345927896</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="J6">
-        <v>1.078362653883097</v>
+        <v>0.8667227375440442</v>
       </c>
       <c r="K6">
-        <v>0.9838603097581772</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="L6">
-        <v>0.9784829968923793</v>
+        <v>0.8806612137790144</v>
       </c>
       <c r="M6">
-        <v>1.028422825387738</v>
+        <v>1.213060080085829</v>
       </c>
       <c r="N6">
-        <v>1.028422825387738</v>
+        <v>1.213060080085829</v>
       </c>
       <c r="O6">
-        <v>1.033738809496538</v>
+        <v>1.238423986882484</v>
       </c>
       <c r="P6">
-        <v>1.013568653511218</v>
+        <v>1.086324133940347</v>
       </c>
       <c r="Q6">
-        <v>1.013568653511218</v>
+        <v>1.086324133940347</v>
       </c>
       <c r="R6">
-        <v>1.006141567572958</v>
+        <v>1.022956160867606</v>
       </c>
       <c r="S6">
-        <v>1.006141567572958</v>
+        <v>1.022956160867606</v>
       </c>
       <c r="T6">
-        <v>1.001112526044662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.017557592171343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997314661129012</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="D7">
-        <v>1.000983999952439</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="E7">
-        <v>0.9997679861834489</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="F7">
-        <v>0.9997314661129012</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="G7">
-        <v>0.9993956565152327</v>
+        <v>1.008129440794634</v>
       </c>
       <c r="H7">
-        <v>1.000528555973675</v>
+        <v>0.9887725148319589</v>
       </c>
       <c r="I7">
-        <v>0.9997573387097167</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="J7">
-        <v>1.000983999952439</v>
+        <v>0.9963684799826926</v>
       </c>
       <c r="K7">
-        <v>0.9997314661129012</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="L7">
-        <v>0.9997679861834489</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="M7">
-        <v>1.000375993067944</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="N7">
-        <v>1.000375993067944</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="O7">
-        <v>1.000426847369855</v>
+        <v>1.006044486782975</v>
       </c>
       <c r="P7">
-        <v>1.000161150749596</v>
+        <v>1.002500193137853</v>
       </c>
       <c r="Q7">
-        <v>1.000161150749596</v>
+        <v>1.002500193137852</v>
       </c>
       <c r="R7">
-        <v>1.000053729590423</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="S7">
-        <v>1.000053729590423</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="T7">
-        <v>1.000027500574569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000128502503807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999467711679818</v>
+        <v>1.001166105881404</v>
       </c>
       <c r="D8">
-        <v>1.002184210141624</v>
+        <v>0.9996069840391398</v>
       </c>
       <c r="E8">
-        <v>0.999453088214374</v>
+        <v>1.001166105881404</v>
       </c>
       <c r="F8">
-        <v>0.999467711679818</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="G8">
-        <v>0.9985770817652052</v>
+        <v>1.000710383723097</v>
       </c>
       <c r="H8">
-        <v>1.001184366862284</v>
+        <v>0.9988915238186244</v>
       </c>
       <c r="I8">
-        <v>0.9994573509987479</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="J8">
-        <v>1.002184210141624</v>
+        <v>0.9996891324211854</v>
       </c>
       <c r="K8">
-        <v>0.999467711679818</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="L8">
-        <v>0.999453088214374</v>
+        <v>0.9996069840391398</v>
       </c>
       <c r="M8">
-        <v>1.000818649177999</v>
+        <v>1.000386544960272</v>
       </c>
       <c r="N8">
-        <v>1.000818649177999</v>
+        <v>1.000386544960272</v>
       </c>
       <c r="O8">
-        <v>1.00094055507276</v>
+        <v>1.000494491214547</v>
       </c>
       <c r="P8">
-        <v>1.000368336678605</v>
+        <v>1.000220614785234</v>
       </c>
       <c r="Q8">
-        <v>1.000368336678605</v>
+        <v>1.000220614785235</v>
       </c>
       <c r="R8">
-        <v>1.000143180428908</v>
+        <v>1.000137649697716</v>
       </c>
       <c r="S8">
-        <v>1.000143180428908</v>
+        <v>1.000137649697716</v>
       </c>
       <c r="T8">
-        <v>1.000053968277009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999921473864349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994528483323841</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="D9">
-        <v>1.002819731120425</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="E9">
-        <v>0.9992207114048325</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="F9">
-        <v>0.9994528483323841</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="G9">
-        <v>0.9979446589617001</v>
+        <v>1.01578173998079</v>
       </c>
       <c r="H9">
-        <v>1.001566614873024</v>
+        <v>0.9790556460447278</v>
       </c>
       <c r="I9">
-        <v>0.9992883891793674</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="J9">
-        <v>1.002819731120425</v>
+        <v>0.9929115539759762</v>
       </c>
       <c r="K9">
-        <v>0.9994528483323841</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="L9">
-        <v>0.9992207114048325</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="M9">
-        <v>1.001020221262629</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="N9">
-        <v>1.001020221262629</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="O9">
-        <v>1.001202352466094</v>
+        <v>1.011960055290063</v>
       </c>
       <c r="P9">
-        <v>1.000497763619214</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="Q9">
-        <v>1.000497763619214</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="R9">
-        <v>1.000236534797507</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="S9">
-        <v>1.000236534797507</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="T9">
-        <v>1.000048825645289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>1.000373418761038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9985785089178593</v>
+        <v>1.553939852940079</v>
       </c>
       <c r="D10">
-        <v>1.006332524858342</v>
+        <v>0.879074309677029</v>
       </c>
       <c r="E10">
-        <v>0.9983489055325222</v>
+        <v>1.553939852940079</v>
       </c>
       <c r="F10">
-        <v>0.9985785089178593</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="G10">
-        <v>0.9956645035522087</v>
+        <v>1.293482251323369</v>
       </c>
       <c r="H10">
-        <v>1.003473422583392</v>
+        <v>0.6865289214096263</v>
       </c>
       <c r="I10">
-        <v>0.9984158463048881</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="J10">
-        <v>1.006332524858342</v>
+        <v>0.8646979966531234</v>
       </c>
       <c r="K10">
-        <v>0.9985785089178593</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="L10">
-        <v>0.9983489055325222</v>
+        <v>0.879074309677029</v>
       </c>
       <c r="M10">
-        <v>1.002340715195432</v>
+        <v>1.216507081308554</v>
       </c>
       <c r="N10">
-        <v>1.002340715195432</v>
+        <v>1.216507081308554</v>
       </c>
       <c r="O10">
-        <v>1.002718284324752</v>
+        <v>1.242165471313492</v>
       </c>
       <c r="P10">
-        <v>1.001086646436241</v>
+        <v>1.087592573332262</v>
       </c>
       <c r="Q10">
-        <v>1.001086646436241</v>
+        <v>1.087592573332261</v>
       </c>
       <c r="R10">
-        <v>1.000459612056646</v>
+        <v>1.023135319344115</v>
       </c>
       <c r="S10">
-        <v>1.000459612056646</v>
+        <v>1.023135319344115</v>
       </c>
       <c r="T10">
-        <v>1.000135618624869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.017914481563817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9982995855561868</v>
+        <v>0.9603136353806515</v>
       </c>
       <c r="D11">
-        <v>1.009755609257928</v>
+        <v>1.004752227008736</v>
       </c>
       <c r="E11">
-        <v>0.9972027366632632</v>
+        <v>0.9603136353806515</v>
       </c>
       <c r="F11">
-        <v>0.9982995855561868</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="G11">
-        <v>0.9926142823046769</v>
+        <v>0.9816792367028291</v>
       </c>
       <c r="H11">
-        <v>1.005466336231069</v>
+        <v>1.009170426698961</v>
       </c>
       <c r="I11">
-        <v>0.9975225160720866</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="J11">
-        <v>1.009755609257928</v>
+        <v>1.008978702914512</v>
       </c>
       <c r="K11">
-        <v>0.9982995855561868</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="L11">
-        <v>0.9972027366632632</v>
+        <v>1.004752227008736</v>
       </c>
       <c r="M11">
-        <v>1.003479172960596</v>
+        <v>0.982532931194694</v>
       </c>
       <c r="N11">
-        <v>1.003479172960596</v>
+        <v>0.982532931194694</v>
       </c>
       <c r="O11">
-        <v>1.00414156071742</v>
+        <v>0.9822483663640723</v>
       </c>
       <c r="P11">
-        <v>1.001752643825793</v>
+        <v>0.9947716327555787</v>
       </c>
       <c r="Q11">
-        <v>1.001752643825793</v>
+        <v>0.9947716327555787</v>
       </c>
       <c r="R11">
-        <v>1.000889379258391</v>
+        <v>1.000890983536021</v>
       </c>
       <c r="S11">
-        <v>1.000889379258391</v>
+        <v>1.000890983536021</v>
       </c>
       <c r="T11">
-        <v>1.000143511014202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9973572107638397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.075386889794298</v>
+        <v>1.163737109736847</v>
       </c>
       <c r="D12">
-        <v>0.91057969923935</v>
+        <v>0.9646273921789486</v>
       </c>
       <c r="E12">
-        <v>0.9929873492974732</v>
+        <v>1.163737109736847</v>
       </c>
       <c r="F12">
-        <v>1.075386889794298</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="G12">
-        <v>0.9660316812289249</v>
+        <v>1.086522331989475</v>
       </c>
       <c r="H12">
-        <v>0.9696302746571999</v>
+        <v>0.908532113610526</v>
       </c>
       <c r="I12">
-        <v>1.017010539067367</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="J12">
-        <v>0.91057969923935</v>
+        <v>0.9600693188421048</v>
       </c>
       <c r="K12">
-        <v>1.075386889794298</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="L12">
-        <v>0.9929873492974732</v>
+        <v>0.9646273921789486</v>
       </c>
       <c r="M12">
-        <v>0.9517835242684116</v>
+        <v>1.064182250957898</v>
       </c>
       <c r="N12">
-        <v>0.9517835242684116</v>
+        <v>1.064182250957898</v>
       </c>
       <c r="O12">
-        <v>0.9577324410646743</v>
+        <v>1.07162894463509</v>
       </c>
       <c r="P12">
-        <v>0.992984646110374</v>
+        <v>1.025785901245616</v>
       </c>
       <c r="Q12">
-        <v>0.992984646110374</v>
+        <v>1.025785901245616</v>
       </c>
       <c r="R12">
-        <v>1.013585207031355</v>
+        <v>1.006587726389474</v>
       </c>
       <c r="S12">
-        <v>1.013585207031355</v>
+        <v>1.006587726389474</v>
       </c>
       <c r="T12">
-        <v>0.9886044055474356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.005413578029825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9768606400292907</v>
+        <v>0.8948613536894222</v>
       </c>
       <c r="D13">
-        <v>1.00267354164588</v>
+        <v>1.025822833881602</v>
       </c>
       <c r="E13">
-        <v>1.011692037474417</v>
+        <v>0.8948613536894222</v>
       </c>
       <c r="F13">
-        <v>0.9768606400292907</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="G13">
-        <v>1.037326427000578</v>
+        <v>0.9425029356516539</v>
       </c>
       <c r="H13">
-        <v>0.9937303502423311</v>
+        <v>1.068555774332426</v>
       </c>
       <c r="I13">
-        <v>1.001537114277415</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="J13">
-        <v>1.00267354164588</v>
+        <v>1.02619349949295</v>
       </c>
       <c r="K13">
-        <v>0.9768606400292907</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="L13">
-        <v>1.011692037474417</v>
+        <v>1.025822833881602</v>
       </c>
       <c r="M13">
-        <v>1.007182789560149</v>
+        <v>0.9603420937855123</v>
       </c>
       <c r="N13">
-        <v>1.007182789560149</v>
+        <v>0.9603420937855123</v>
       </c>
       <c r="O13">
-        <v>1.002698643120876</v>
+        <v>0.9543957077408928</v>
       </c>
       <c r="P13">
-        <v>0.997075406383196</v>
+        <v>0.9825928030227956</v>
       </c>
       <c r="Q13">
-        <v>0.9970754063831961</v>
+        <v>0.9825928030227954</v>
       </c>
       <c r="R13">
-        <v>0.9920217147947198</v>
+        <v>0.9937181576414371</v>
       </c>
       <c r="S13">
-        <v>0.9920217147947198</v>
+        <v>0.9937181576414371</v>
       </c>
       <c r="T13">
-        <v>1.003970018444986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>0.9975051030909027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9308728181281832</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="D14">
-        <v>0.9753406102947881</v>
+        <v>0.7915387899999989</v>
       </c>
       <c r="E14">
-        <v>1.04786831928793</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="F14">
-        <v>0.9308728181281832</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="G14">
-        <v>1.150124568706548</v>
+        <v>1.507101800000001</v>
       </c>
       <c r="H14">
-        <v>0.9595273265176854</v>
+        <v>0.46000639</v>
       </c>
       <c r="I14">
-        <v>1.013758856836758</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="J14">
-        <v>0.9753406102947881</v>
+        <v>0.766139809999999</v>
       </c>
       <c r="K14">
-        <v>0.9308728181281832</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="L14">
-        <v>1.04786831928793</v>
+        <v>0.7915387899999989</v>
       </c>
       <c r="M14">
-        <v>1.011604464791359</v>
+        <v>1.374737944999999</v>
       </c>
       <c r="N14">
-        <v>1.011604464791359</v>
+        <v>1.374737944999999</v>
       </c>
       <c r="O14">
-        <v>0.9942454187001344</v>
+        <v>1.41885923</v>
       </c>
       <c r="P14">
-        <v>0.9846939159036338</v>
+        <v>1.151298726666666</v>
       </c>
       <c r="Q14">
-        <v>0.9846939159036338</v>
+        <v>1.151298726666666</v>
       </c>
       <c r="R14">
-        <v>0.9712386414597711</v>
+        <v>1.0395791175</v>
       </c>
       <c r="S14">
-        <v>0.9712386414597711</v>
+        <v>1.0395791175</v>
       </c>
       <c r="T14">
-        <v>1.012915416628648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.031190696666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.041597719753494</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D15">
-        <v>0.9583838242667003</v>
+        <v>0.99179431</v>
       </c>
       <c r="E15">
-        <v>0.9934404279803428</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F15">
-        <v>1.041597719753494</v>
+        <v>1.3679559</v>
       </c>
       <c r="G15">
-        <v>0.9727108968762332</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="H15">
-        <v>0.9877867154196399</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I15">
-        <v>1.007480446150207</v>
+        <v>1.3679559</v>
       </c>
       <c r="J15">
-        <v>0.9583838242667003</v>
+        <v>1.1014624</v>
       </c>
       <c r="K15">
-        <v>1.041597719753494</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>0.9934404279803428</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>0.9759121261235215</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>0.9759121261235215</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>0.9798703225555609</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>0.9978073240001789</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>0.9978073240001789</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>1.008754922938508</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>1.008754922938508</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9935666717411027</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997591186580943</v>
+        <v>0.42001931</v>
       </c>
       <c r="D16">
-        <v>1.000204314289278</v>
+        <v>1.1327554</v>
       </c>
       <c r="E16">
-        <v>1.000055254817863</v>
+        <v>0.42001931</v>
       </c>
       <c r="F16">
-        <v>0.9997591186580943</v>
+        <v>1.1783331</v>
       </c>
       <c r="G16">
-        <v>1.000208321903947</v>
+        <v>0.67514785</v>
       </c>
       <c r="H16">
-        <v>1.000041281561376</v>
+        <v>1.3704655</v>
       </c>
       <c r="I16">
-        <v>0.9999689175319703</v>
+        <v>1.1783331</v>
       </c>
       <c r="J16">
-        <v>1.000204314289278</v>
+        <v>1.1460434</v>
       </c>
       <c r="K16">
-        <v>0.9997591186580943</v>
+        <v>1.1783331</v>
       </c>
       <c r="L16">
-        <v>1.000055254817863</v>
+        <v>1.1327554</v>
       </c>
       <c r="M16">
-        <v>1.00012978455357</v>
+        <v>0.776387355</v>
       </c>
       <c r="N16">
-        <v>1.00012978455357</v>
+        <v>0.776387355</v>
       </c>
       <c r="O16">
-        <v>1.000100283556172</v>
+        <v>0.7426408533333334</v>
       </c>
       <c r="P16">
-        <v>1.000006229255078</v>
+        <v>0.91036927</v>
       </c>
       <c r="Q16">
-        <v>1.000006229255078</v>
+        <v>0.91036927</v>
       </c>
       <c r="R16">
-        <v>0.9999444516058322</v>
+        <v>0.9773602275</v>
       </c>
       <c r="S16">
-        <v>0.9999444516058322</v>
+        <v>0.9773602275</v>
       </c>
       <c r="T16">
-        <v>1.000039534793755</v>
+        <v>0.9871274266666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998887544351591</v>
+        <v>0.39830763</v>
       </c>
       <c r="D17">
-        <v>1.001166105881405</v>
+        <v>1.1820294</v>
       </c>
       <c r="E17">
-        <v>0.9996069840391398</v>
+        <v>0.39830763</v>
       </c>
       <c r="F17">
-        <v>0.9998887544351591</v>
+        <v>1.1002904</v>
       </c>
       <c r="G17">
-        <v>0.9988915238186244</v>
+        <v>0.63959612</v>
       </c>
       <c r="H17">
-        <v>1.000710383723097</v>
+        <v>1.5192043</v>
       </c>
       <c r="I17">
-        <v>0.9996891324211854</v>
+        <v>1.1002904</v>
       </c>
       <c r="J17">
-        <v>1.001166105881405</v>
+        <v>1.1581988</v>
       </c>
       <c r="K17">
-        <v>0.9998887544351591</v>
+        <v>1.1002904</v>
       </c>
       <c r="L17">
-        <v>0.9996069840391398</v>
+        <v>1.1820294</v>
       </c>
       <c r="M17">
-        <v>1.000386544960272</v>
+        <v>0.790168515</v>
       </c>
       <c r="N17">
-        <v>1.000386544960272</v>
+        <v>0.790168515</v>
       </c>
       <c r="O17">
-        <v>1.000494491214547</v>
+        <v>0.7399777166666667</v>
       </c>
       <c r="P17">
-        <v>1.000220614785235</v>
+        <v>0.8935424766666666</v>
       </c>
       <c r="Q17">
-        <v>1.000220614785235</v>
+        <v>0.8935424766666668</v>
       </c>
       <c r="R17">
-        <v>1.000137649697716</v>
+        <v>0.9452294575000001</v>
       </c>
       <c r="S17">
-        <v>1.000137649697716</v>
+        <v>0.9452294575000001</v>
       </c>
       <c r="T17">
-        <v>0.9999921473864349</v>
+        <v>0.9996044416666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985620000645224</v>
+        <v>1.320336962328767</v>
       </c>
       <c r="D18">
-        <v>1.004779713775969</v>
+        <v>0.9086469157534247</v>
       </c>
       <c r="E18">
-        <v>0.9989422385280404</v>
+        <v>1.320336962328767</v>
       </c>
       <c r="F18">
-        <v>0.9985620000645224</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="G18">
-        <v>0.997262514017125</v>
+        <v>1.183216402328767</v>
       </c>
       <c r="H18">
-        <v>1.002534755180529</v>
+        <v>0.7509090613698632</v>
       </c>
       <c r="I18">
-        <v>0.9988313796366688</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="J18">
-        <v>1.004779713775969</v>
+        <v>0.917903867945206</v>
       </c>
       <c r="K18">
-        <v>0.9985620000645224</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="L18">
-        <v>0.9989422385280404</v>
+        <v>0.9086469157534247</v>
       </c>
       <c r="M18">
-        <v>1.001860976152005</v>
+        <v>1.114491939041096</v>
       </c>
       <c r="N18">
-        <v>1.001860976152005</v>
+        <v>1.114491939041096</v>
       </c>
       <c r="O18">
-        <v>1.002085569161513</v>
+        <v>1.13740009347032</v>
       </c>
       <c r="P18">
-        <v>1.000761317456177</v>
+        <v>1.056460711415525</v>
       </c>
       <c r="Q18">
-        <v>1.000761317456177</v>
+        <v>1.056460711415525</v>
       </c>
       <c r="R18">
-        <v>1.000211488108264</v>
+        <v>1.02744509760274</v>
       </c>
       <c r="S18">
-        <v>1.000211488108264</v>
+        <v>1.02744509760274</v>
       </c>
       <c r="T18">
-        <v>1.000152100200476</v>
+        <v>1.003568577648402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9961091628473799</v>
+        <v>0.9411247163157893</v>
       </c>
       <c r="D19">
-        <v>1.011541277023999</v>
+        <v>1.049972158421053</v>
       </c>
       <c r="E19">
-        <v>0.9976833655361981</v>
+        <v>0.9411247163157893</v>
       </c>
       <c r="F19">
-        <v>0.9961091628473799</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="G19">
-        <v>0.9941732124117081</v>
+        <v>0.9375689689473686</v>
       </c>
       <c r="H19">
-        <v>1.005954575436356</v>
+        <v>1.165946744210526</v>
       </c>
       <c r="I19">
-        <v>0.9972244112570736</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="J19">
-        <v>1.011541277023999</v>
+        <v>1.02274412</v>
       </c>
       <c r="K19">
-        <v>0.9961091628473799</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="L19">
-        <v>0.9976833655361981</v>
+        <v>1.049972158421053</v>
       </c>
       <c r="M19">
-        <v>1.004612321280098</v>
+        <v>0.9955484373684211</v>
       </c>
       <c r="N19">
-        <v>1.004612321280098</v>
+        <v>0.9955484373684211</v>
       </c>
       <c r="O19">
-        <v>1.005059739332184</v>
+        <v>0.976221947894737</v>
       </c>
       <c r="P19">
-        <v>1.001777935135859</v>
+        <v>0.9825589440350878</v>
       </c>
       <c r="Q19">
-        <v>1.001777935135859</v>
+        <v>0.9825589440350878</v>
       </c>
       <c r="R19">
-        <v>1.000360742063739</v>
+        <v>0.9760641973684211</v>
       </c>
       <c r="S19">
-        <v>1.000360742063739</v>
+        <v>0.9760641973684211</v>
       </c>
       <c r="T19">
-        <v>1.000447667418786</v>
+        <v>1.01232277754386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8132176789473686</v>
+      </c>
+      <c r="D20">
+        <v>1.046321131052631</v>
+      </c>
+      <c r="E20">
+        <v>0.8132176789473686</v>
+      </c>
+      <c r="F20">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="G20">
+        <v>0.8934591215789474</v>
+      </c>
+      <c r="H20">
+        <v>1.132142987368421</v>
+      </c>
+      <c r="I20">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="J20">
+        <v>1.047406860526316</v>
+      </c>
+      <c r="K20">
+        <v>1.050045167368421</v>
+      </c>
+      <c r="L20">
+        <v>1.046321131052631</v>
+      </c>
+      <c r="M20">
+        <v>0.929769405</v>
+      </c>
+      <c r="N20">
+        <v>0.929769405</v>
+      </c>
+      <c r="O20">
+        <v>0.9176659771929825</v>
+      </c>
+      <c r="P20">
+        <v>0.9698613257894738</v>
+      </c>
+      <c r="Q20">
+        <v>0.9698613257894738</v>
+      </c>
+      <c r="R20">
+        <v>0.9899072861842106</v>
+      </c>
+      <c r="S20">
+        <v>0.9899072861842106</v>
+      </c>
+      <c r="T20">
+        <v>0.9970988244736843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9753406102947882</v>
+      </c>
+      <c r="D21">
+        <v>1.047868319287929</v>
+      </c>
+      <c r="E21">
+        <v>0.9753406102947882</v>
+      </c>
+      <c r="F21">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="G21">
+        <v>0.9595273265176854</v>
+      </c>
+      <c r="H21">
+        <v>1.150124568706548</v>
+      </c>
+      <c r="I21">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="J21">
+        <v>1.013758856836757</v>
+      </c>
+      <c r="K21">
+        <v>0.9308728181281832</v>
+      </c>
+      <c r="L21">
+        <v>1.047868319287929</v>
+      </c>
+      <c r="M21">
+        <v>1.011604464791359</v>
+      </c>
+      <c r="N21">
+        <v>1.011604464791359</v>
+      </c>
+      <c r="O21">
+        <v>0.9942454187001344</v>
+      </c>
+      <c r="P21">
+        <v>0.9846939159036338</v>
+      </c>
+      <c r="Q21">
+        <v>0.9846939159036335</v>
+      </c>
+      <c r="R21">
+        <v>0.971238641459771</v>
+      </c>
+      <c r="S21">
+        <v>0.971238641459771</v>
+      </c>
+      <c r="T21">
+        <v>1.012915416628648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9583838242667004</v>
+      </c>
+      <c r="D22">
+        <v>0.9934404279803428</v>
+      </c>
+      <c r="E22">
+        <v>0.9583838242667004</v>
+      </c>
+      <c r="F22">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="G22">
+        <v>0.9877867154196398</v>
+      </c>
+      <c r="H22">
+        <v>0.9727108968762332</v>
+      </c>
+      <c r="I22">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="J22">
+        <v>1.007480446150207</v>
+      </c>
+      <c r="K22">
+        <v>1.041597719753493</v>
+      </c>
+      <c r="L22">
+        <v>0.9934404279803428</v>
+      </c>
+      <c r="M22">
+        <v>0.9759121261235216</v>
+      </c>
+      <c r="N22">
+        <v>0.9759121261235216</v>
+      </c>
+      <c r="O22">
+        <v>0.9798703225555609</v>
+      </c>
+      <c r="P22">
+        <v>0.9978073240001789</v>
+      </c>
+      <c r="Q22">
+        <v>0.9978073240001789</v>
+      </c>
+      <c r="R22">
+        <v>1.008754922938508</v>
+      </c>
+      <c r="S22">
+        <v>1.008754922938508</v>
+      </c>
+      <c r="T22">
+        <v>0.9935666717411027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9105796992393499</v>
+      </c>
+      <c r="D23">
+        <v>0.9929873492974732</v>
+      </c>
+      <c r="E23">
+        <v>0.9105796992393499</v>
+      </c>
+      <c r="F23">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="G23">
+        <v>0.9696302746571999</v>
+      </c>
+      <c r="H23">
+        <v>0.966031681228925</v>
+      </c>
+      <c r="I23">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="J23">
+        <v>1.017010539067367</v>
+      </c>
+      <c r="K23">
+        <v>1.075386889794298</v>
+      </c>
+      <c r="L23">
+        <v>0.9929873492974732</v>
+      </c>
+      <c r="M23">
+        <v>0.9517835242684116</v>
+      </c>
+      <c r="N23">
+        <v>0.9517835242684116</v>
+      </c>
+      <c r="O23">
+        <v>0.9577324410646743</v>
+      </c>
+      <c r="P23">
+        <v>0.992984646110374</v>
+      </c>
+      <c r="Q23">
+        <v>0.992984646110374</v>
+      </c>
+      <c r="R23">
+        <v>1.013585207031355</v>
+      </c>
+      <c r="S23">
+        <v>1.013585207031355</v>
+      </c>
+      <c r="T23">
+        <v>0.9886044055474356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.00267354164588</v>
+      </c>
+      <c r="D24">
+        <v>1.011692037474417</v>
+      </c>
+      <c r="E24">
+        <v>1.00267354164588</v>
+      </c>
+      <c r="F24">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="G24">
+        <v>0.993730350242331</v>
+      </c>
+      <c r="H24">
+        <v>1.037326427000578</v>
+      </c>
+      <c r="I24">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="J24">
+        <v>1.001537114277415</v>
+      </c>
+      <c r="K24">
+        <v>0.9768606400292907</v>
+      </c>
+      <c r="L24">
+        <v>1.011692037474417</v>
+      </c>
+      <c r="M24">
+        <v>1.007182789560149</v>
+      </c>
+      <c r="N24">
+        <v>1.007182789560149</v>
+      </c>
+      <c r="O24">
+        <v>1.002698643120876</v>
+      </c>
+      <c r="P24">
+        <v>0.997075406383196</v>
+      </c>
+      <c r="Q24">
+        <v>0.997075406383196</v>
+      </c>
+      <c r="R24">
+        <v>0.9920217147947197</v>
+      </c>
+      <c r="S24">
+        <v>0.9920217147947197</v>
+      </c>
+      <c r="T24">
+        <v>1.003970018444985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.6854382894174851</v>
+      </c>
+      <c r="D25">
+        <v>1.067023892585658</v>
+      </c>
+      <c r="E25">
+        <v>0.6854382894174851</v>
+      </c>
+      <c r="F25">
+        <v>1.099673522981465</v>
+      </c>
+      <c r="G25">
+        <v>0.8344924368907178</v>
+      </c>
+      <c r="H25">
+        <v>1.172252547774983</v>
+      </c>
+      <c r="I25">
+        <v>1.099673522981465</v>
+      </c>
+      <c r="J25">
+        <v>1.076542747058138</v>
+      </c>
+      <c r="K25">
+        <v>1.099673522981465</v>
+      </c>
+      <c r="L25">
+        <v>1.067023892585658</v>
+      </c>
+      <c r="M25">
+        <v>0.8762310910015717</v>
+      </c>
+      <c r="N25">
+        <v>0.8762310910015717</v>
+      </c>
+      <c r="O25">
+        <v>0.8623182062979536</v>
+      </c>
+      <c r="P25">
+        <v>0.9507119016615361</v>
+      </c>
+      <c r="Q25">
+        <v>0.9507119016615361</v>
+      </c>
+      <c r="R25">
+        <v>0.9879523069915181</v>
+      </c>
+      <c r="S25">
+        <v>0.9879523069915181</v>
+      </c>
+      <c r="T25">
+        <v>0.9892372394514078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.927473889069191</v>
+      </c>
+      <c r="D26">
+        <v>1.022694348108632</v>
+      </c>
+      <c r="E26">
+        <v>0.927473889069191</v>
+      </c>
+      <c r="F26">
+        <v>1.009466547317395</v>
+      </c>
+      <c r="G26">
+        <v>0.9573364926206083</v>
+      </c>
+      <c r="H26">
+        <v>1.063614161000138</v>
+      </c>
+      <c r="I26">
+        <v>1.009466547317395</v>
+      </c>
+      <c r="J26">
+        <v>1.018837839459589</v>
+      </c>
+      <c r="K26">
+        <v>1.009466547317395</v>
+      </c>
+      <c r="L26">
+        <v>1.022694348108632</v>
+      </c>
+      <c r="M26">
+        <v>0.9750841185889116</v>
+      </c>
+      <c r="N26">
+        <v>0.9750841185889116</v>
+      </c>
+      <c r="O26">
+        <v>0.9691682432661439</v>
+      </c>
+      <c r="P26">
+        <v>0.9865449281650728</v>
+      </c>
+      <c r="Q26">
+        <v>0.9865449281650728</v>
+      </c>
+      <c r="R26">
+        <v>0.9922753329531534</v>
+      </c>
+      <c r="S26">
+        <v>0.9922753329531534</v>
+      </c>
+      <c r="T26">
+        <v>0.9999038795959256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.061717310555795</v>
+      </c>
+      <c r="D27">
+        <v>0.9825502752016544</v>
+      </c>
+      <c r="E27">
+        <v>1.061717310555795</v>
+      </c>
+      <c r="F27">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="G27">
+        <v>1.029357323033703</v>
+      </c>
+      <c r="H27">
+        <v>0.964426750898623</v>
+      </c>
+      <c r="I27">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="J27">
+        <v>0.9854066968915135</v>
+      </c>
+      <c r="K27">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="L27">
+        <v>0.9825502752016544</v>
+      </c>
+      <c r="M27">
+        <v>1.022133792878725</v>
+      </c>
+      <c r="N27">
+        <v>1.022133792878725</v>
+      </c>
+      <c r="O27">
+        <v>1.024541636263717</v>
+      </c>
+      <c r="P27">
+        <v>1.012205128694693</v>
+      </c>
+      <c r="Q27">
+        <v>1.012205128694693</v>
+      </c>
+      <c r="R27">
+        <v>1.007240796602677</v>
+      </c>
+      <c r="S27">
+        <v>1.007240796602677</v>
+      </c>
+      <c r="T27">
+        <v>1.002634359484653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9421147952542833</v>
+      </c>
+      <c r="D28">
+        <v>1.01888634249518</v>
+      </c>
+      <c r="E28">
+        <v>0.9421147952542833</v>
+      </c>
+      <c r="F28">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="G28">
+        <v>0.9653683676202809</v>
+      </c>
+      <c r="H28">
+        <v>1.052458952442305</v>
+      </c>
+      <c r="I28">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="J28">
+        <v>1.01528000139616</v>
+      </c>
+      <c r="K28">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="L28">
+        <v>1.01888634249518</v>
+      </c>
+      <c r="M28">
+        <v>0.9805005688747315</v>
+      </c>
+      <c r="N28">
+        <v>0.9805005688747315</v>
+      </c>
+      <c r="O28">
+        <v>0.9754565017899145</v>
+      </c>
+      <c r="P28">
+        <v>0.9891725713976226</v>
+      </c>
+      <c r="Q28">
+        <v>0.9891725713976228</v>
+      </c>
+      <c r="R28">
+        <v>0.9935085726590683</v>
+      </c>
+      <c r="S28">
+        <v>0.9935085726590683</v>
+      </c>
+      <c r="T28">
+        <v>1.000104172608602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.770676259566808</v>
+      </c>
+      <c r="D29">
+        <v>1.058183324743838</v>
+      </c>
+      <c r="E29">
+        <v>0.770676259566808</v>
+      </c>
+      <c r="F29">
+        <v>1.05526532718019</v>
+      </c>
+      <c r="G29">
+        <v>0.8742525181343386</v>
+      </c>
+      <c r="H29">
+        <v>1.153309673943349</v>
+      </c>
+      <c r="I29">
+        <v>1.05526532718019</v>
+      </c>
+      <c r="J29">
+        <v>1.057332600259997</v>
+      </c>
+      <c r="K29">
+        <v>1.05526532718019</v>
+      </c>
+      <c r="L29">
+        <v>1.058183324743838</v>
+      </c>
+      <c r="M29">
+        <v>0.9144297921553232</v>
+      </c>
+      <c r="N29">
+        <v>0.9144297921553232</v>
+      </c>
+      <c r="O29">
+        <v>0.9010373674816616</v>
+      </c>
+      <c r="P29">
+        <v>0.9613749704969455</v>
+      </c>
+      <c r="Q29">
+        <v>0.9613749704969455</v>
+      </c>
+      <c r="R29">
+        <v>0.9848475596677566</v>
+      </c>
+      <c r="S29">
+        <v>0.9848475596677566</v>
+      </c>
+      <c r="T29">
+        <v>0.9948366173047534</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9211038995487866</v>
+        <v>1.138263273980137</v>
       </c>
       <c r="D4">
-        <v>1.019636736292879</v>
+        <v>0.9690276035269448</v>
       </c>
       <c r="E4">
-        <v>0.9211038995487866</v>
+        <v>1.138263273980137</v>
       </c>
       <c r="F4">
-        <v>1.020700607562874</v>
+        <v>0.9589064442465784</v>
       </c>
       <c r="G4">
-        <v>0.9556226449985453</v>
+        <v>1.073803878739319</v>
       </c>
       <c r="H4">
-        <v>1.054160540248977</v>
+        <v>0.9191383543040965</v>
       </c>
       <c r="I4">
-        <v>1.020700607562874</v>
+        <v>0.9589064442465784</v>
       </c>
       <c r="J4">
-        <v>1.01994690416856</v>
+        <v>0.9660768281130794</v>
       </c>
       <c r="K4">
-        <v>1.020700607562874</v>
+        <v>0.9589064442465784</v>
       </c>
       <c r="L4">
-        <v>1.019636736292879</v>
+        <v>0.9690276035269448</v>
       </c>
       <c r="M4">
-        <v>0.9703703179208326</v>
+        <v>1.053645438753541</v>
       </c>
       <c r="N4">
-        <v>0.9703703179208326</v>
+        <v>1.053645438753541</v>
       </c>
       <c r="O4">
-        <v>0.9654544269467369</v>
+        <v>1.0603649187488</v>
       </c>
       <c r="P4">
-        <v>0.9871470811348463</v>
+        <v>1.022065773917887</v>
       </c>
       <c r="Q4">
-        <v>0.9871470811348463</v>
+        <v>1.022065773917887</v>
       </c>
       <c r="R4">
-        <v>0.9955354627418531</v>
+        <v>1.00627594150006</v>
       </c>
       <c r="S4">
-        <v>0.9955354627418531</v>
+        <v>1.00627594150006</v>
       </c>
       <c r="T4">
-        <v>0.9985285554701037</v>
+        <v>1.004202730485026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.155757960619602</v>
+        <v>0.7292251343968502</v>
       </c>
       <c r="D5">
-        <v>0.9644594042651317</v>
+        <v>1.068160520777079</v>
       </c>
       <c r="E5">
-        <v>1.155757960619602</v>
+        <v>0.7292251343968502</v>
       </c>
       <c r="F5">
-        <v>0.9549530258573478</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="G5">
-        <v>1.083443997543228</v>
+        <v>0.8468513304104048</v>
       </c>
       <c r="H5">
-        <v>0.9070916007132552</v>
+        <v>1.190613404104776</v>
       </c>
       <c r="I5">
-        <v>0.9549530258573478</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="J5">
-        <v>0.9616878653746387</v>
+        <v>1.068527186448965</v>
       </c>
       <c r="K5">
-        <v>0.9549530258573478</v>
+        <v>1.069418165332101</v>
       </c>
       <c r="L5">
-        <v>0.9644594042651317</v>
+        <v>1.068160520777079</v>
       </c>
       <c r="M5">
-        <v>1.060108682442367</v>
+        <v>0.8986928275869646</v>
       </c>
       <c r="N5">
-        <v>1.060108682442367</v>
+        <v>0.8986928275869646</v>
       </c>
       <c r="O5">
-        <v>1.067887120809321</v>
+        <v>0.8814123285281114</v>
       </c>
       <c r="P5">
-        <v>1.025056796914027</v>
+        <v>0.9556012735020101</v>
       </c>
       <c r="Q5">
-        <v>1.025056796914027</v>
+        <v>0.9556012735020101</v>
       </c>
       <c r="R5">
-        <v>1.007530854149857</v>
+        <v>0.9840554964595328</v>
       </c>
       <c r="S5">
-        <v>1.007530854149857</v>
+        <v>0.9840554964595328</v>
       </c>
       <c r="T5">
-        <v>1.004565642395534</v>
+        <v>0.995465956911696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.545458946392644</v>
+        <v>0.9211038995487866</v>
       </c>
       <c r="D6">
-        <v>0.8806612137790144</v>
+        <v>1.019636736292879</v>
       </c>
       <c r="E6">
-        <v>1.545458946392644</v>
+        <v>0.9211038995487866</v>
       </c>
       <c r="F6">
-        <v>0.8328522416493822</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="G6">
-        <v>1.289151800475794</v>
+        <v>0.9556226449985453</v>
       </c>
       <c r="H6">
-        <v>0.69049861318718</v>
+        <v>1.054160540248977</v>
       </c>
       <c r="I6">
-        <v>0.8328522416493822</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="J6">
-        <v>0.8667227375440442</v>
+        <v>1.01994690416856</v>
       </c>
       <c r="K6">
-        <v>0.8328522416493822</v>
+        <v>1.020700607562874</v>
       </c>
       <c r="L6">
-        <v>0.8806612137790144</v>
+        <v>1.019636736292879</v>
       </c>
       <c r="M6">
-        <v>1.213060080085829</v>
+        <v>0.9703703179208326</v>
       </c>
       <c r="N6">
-        <v>1.213060080085829</v>
+        <v>0.9703703179208326</v>
       </c>
       <c r="O6">
-        <v>1.238423986882484</v>
+        <v>0.9654544269467369</v>
       </c>
       <c r="P6">
-        <v>1.086324133940347</v>
+        <v>0.9871470811348463</v>
       </c>
       <c r="Q6">
-        <v>1.086324133940347</v>
+        <v>0.9871470811348463</v>
       </c>
       <c r="R6">
-        <v>1.022956160867606</v>
+        <v>0.9955354627418531</v>
       </c>
       <c r="S6">
-        <v>1.022956160867606</v>
+        <v>0.9955354627418531</v>
       </c>
       <c r="T6">
-        <v>1.017557592171343</v>
+        <v>0.9985285554701037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.014099769197405</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="D7">
-        <v>0.9959042503568872</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="E7">
-        <v>1.014099769197405</v>
+        <v>1.155757960619602</v>
       </c>
       <c r="F7">
-        <v>0.9974965598592649</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="G7">
-        <v>1.008129440794634</v>
+        <v>1.083443997543228</v>
       </c>
       <c r="H7">
-        <v>0.9887725148319589</v>
+        <v>0.9070916007132552</v>
       </c>
       <c r="I7">
-        <v>0.9974965598592649</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="J7">
-        <v>0.9963684799826926</v>
+        <v>0.9616878653746387</v>
       </c>
       <c r="K7">
-        <v>0.9974965598592649</v>
+        <v>0.9549530258573478</v>
       </c>
       <c r="L7">
-        <v>0.9959042503568872</v>
+        <v>0.9644594042651317</v>
       </c>
       <c r="M7">
-        <v>1.005002009777146</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="N7">
-        <v>1.005002009777146</v>
+        <v>1.060108682442367</v>
       </c>
       <c r="O7">
-        <v>1.006044486782975</v>
+        <v>1.067887120809321</v>
       </c>
       <c r="P7">
-        <v>1.002500193137853</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="Q7">
-        <v>1.002500193137852</v>
+        <v>1.025056796914027</v>
       </c>
       <c r="R7">
-        <v>1.001249284818206</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="S7">
-        <v>1.001249284818206</v>
+        <v>1.007530854149857</v>
       </c>
       <c r="T7">
-        <v>1.000128502503807</v>
+        <v>1.004565642395534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001166105881404</v>
+        <v>1.545458946392644</v>
       </c>
       <c r="D8">
-        <v>0.9996069840391398</v>
+        <v>0.8806612137790144</v>
       </c>
       <c r="E8">
-        <v>1.001166105881404</v>
+        <v>1.545458946392644</v>
       </c>
       <c r="F8">
-        <v>0.9998887544351591</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="G8">
-        <v>1.000710383723097</v>
+        <v>1.289151800475794</v>
       </c>
       <c r="H8">
-        <v>0.9988915238186244</v>
+        <v>0.69049861318718</v>
       </c>
       <c r="I8">
-        <v>0.9998887544351591</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="J8">
-        <v>0.9996891324211854</v>
+        <v>0.8667227375440442</v>
       </c>
       <c r="K8">
-        <v>0.9998887544351591</v>
+        <v>0.8328522416493822</v>
       </c>
       <c r="L8">
-        <v>0.9996069840391398</v>
+        <v>0.8806612137790144</v>
       </c>
       <c r="M8">
-        <v>1.000386544960272</v>
+        <v>1.213060080085829</v>
       </c>
       <c r="N8">
-        <v>1.000386544960272</v>
+        <v>1.213060080085829</v>
       </c>
       <c r="O8">
-        <v>1.000494491214547</v>
+        <v>1.238423986882484</v>
       </c>
       <c r="P8">
-        <v>1.000220614785234</v>
+        <v>1.086324133940347</v>
       </c>
       <c r="Q8">
-        <v>1.000220614785235</v>
+        <v>1.086324133940347</v>
       </c>
       <c r="R8">
-        <v>1.000137649697716</v>
+        <v>1.022956160867606</v>
       </c>
       <c r="S8">
-        <v>1.000137649697716</v>
+        <v>1.022956160867606</v>
       </c>
       <c r="T8">
-        <v>0.9999921473864349</v>
+        <v>1.017557592171343</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.027796582347478</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="D9">
-        <v>0.9923018435419203</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="E9">
-        <v>1.027796582347478</v>
+        <v>1.014099769197405</v>
       </c>
       <c r="F9">
-        <v>0.9943931466753338</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="G9">
-        <v>1.01578173998079</v>
+        <v>1.008129440794634</v>
       </c>
       <c r="H9">
-        <v>0.9790556460447278</v>
+        <v>0.9887725148319589</v>
       </c>
       <c r="I9">
-        <v>0.9943931466753338</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="J9">
-        <v>0.9929115539759762</v>
+        <v>0.9963684799826926</v>
       </c>
       <c r="K9">
-        <v>0.9943931466753338</v>
+        <v>0.9974965598592649</v>
       </c>
       <c r="L9">
-        <v>0.9923018435419203</v>
+        <v>0.9959042503568872</v>
       </c>
       <c r="M9">
-        <v>1.010049212944699</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="N9">
-        <v>1.010049212944699</v>
+        <v>1.005002009777146</v>
       </c>
       <c r="O9">
-        <v>1.011960055290063</v>
+        <v>1.006044486782975</v>
       </c>
       <c r="P9">
-        <v>1.004830524188244</v>
+        <v>1.002500193137853</v>
       </c>
       <c r="Q9">
-        <v>1.004830524188244</v>
+        <v>1.002500193137852</v>
       </c>
       <c r="R9">
-        <v>1.002221179810017</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="S9">
-        <v>1.002221179810017</v>
+        <v>1.001249284818206</v>
       </c>
       <c r="T9">
-        <v>1.000373418761038</v>
+        <v>1.000128502503807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.553939852940079</v>
+        <v>1.001166105881404</v>
       </c>
       <c r="D10">
-        <v>0.879074309677029</v>
+        <v>0.9996069840391398</v>
       </c>
       <c r="E10">
-        <v>1.553939852940079</v>
+        <v>1.001166105881404</v>
       </c>
       <c r="F10">
-        <v>0.8297635573796763</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="G10">
-        <v>1.293482251323369</v>
+        <v>1.000710383723097</v>
       </c>
       <c r="H10">
-        <v>0.6865289214096263</v>
+        <v>0.9988915238186244</v>
       </c>
       <c r="I10">
-        <v>0.8297635573796763</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="J10">
-        <v>0.8646979966531234</v>
+        <v>0.9996891324211854</v>
       </c>
       <c r="K10">
-        <v>0.8297635573796763</v>
+        <v>0.9998887544351591</v>
       </c>
       <c r="L10">
-        <v>0.879074309677029</v>
+        <v>0.9996069840391398</v>
       </c>
       <c r="M10">
-        <v>1.216507081308554</v>
+        <v>1.000386544960272</v>
       </c>
       <c r="N10">
-        <v>1.216507081308554</v>
+        <v>1.000386544960272</v>
       </c>
       <c r="O10">
-        <v>1.242165471313492</v>
+        <v>1.000494491214547</v>
       </c>
       <c r="P10">
-        <v>1.087592573332262</v>
+        <v>1.000220614785234</v>
       </c>
       <c r="Q10">
-        <v>1.087592573332261</v>
+        <v>1.000220614785235</v>
       </c>
       <c r="R10">
-        <v>1.023135319344115</v>
+        <v>1.000137649697716</v>
       </c>
       <c r="S10">
-        <v>1.023135319344115</v>
+        <v>1.000137649697716</v>
       </c>
       <c r="T10">
-        <v>1.017914481563817</v>
+        <v>0.9999921473864349</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9603136353806515</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="D11">
-        <v>1.004752227008736</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="E11">
-        <v>0.9603136353806515</v>
+        <v>1.027796582347478</v>
       </c>
       <c r="F11">
-        <v>1.019249035877348</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="G11">
-        <v>0.9816792367028291</v>
+        <v>1.01578173998079</v>
       </c>
       <c r="H11">
-        <v>1.009170426698961</v>
+        <v>0.9790556460447278</v>
       </c>
       <c r="I11">
-        <v>1.019249035877348</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="J11">
-        <v>1.008978702914512</v>
+        <v>0.9929115539759762</v>
       </c>
       <c r="K11">
-        <v>1.019249035877348</v>
+        <v>0.9943931466753338</v>
       </c>
       <c r="L11">
-        <v>1.004752227008736</v>
+        <v>0.9923018435419203</v>
       </c>
       <c r="M11">
-        <v>0.982532931194694</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="N11">
-        <v>0.982532931194694</v>
+        <v>1.010049212944699</v>
       </c>
       <c r="O11">
-        <v>0.9822483663640723</v>
+        <v>1.011960055290063</v>
       </c>
       <c r="P11">
-        <v>0.9947716327555787</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="Q11">
-        <v>0.9947716327555787</v>
+        <v>1.004830524188244</v>
       </c>
       <c r="R11">
-        <v>1.000890983536021</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="S11">
-        <v>1.000890983536021</v>
+        <v>1.002221179810017</v>
       </c>
       <c r="T11">
-        <v>0.9973572107638397</v>
+        <v>1.000373418761038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.163737109736847</v>
+        <v>1.553939852940079</v>
       </c>
       <c r="D12">
-        <v>0.9646273921789486</v>
+        <v>0.879074309677029</v>
       </c>
       <c r="E12">
-        <v>1.163737109736847</v>
+        <v>1.553939852940079</v>
       </c>
       <c r="F12">
-        <v>0.9489932018210511</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="G12">
-        <v>1.086522331989475</v>
+        <v>1.293482251323369</v>
       </c>
       <c r="H12">
-        <v>0.908532113610526</v>
+        <v>0.6865289214096263</v>
       </c>
       <c r="I12">
-        <v>0.9489932018210511</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="J12">
-        <v>0.9600693188421048</v>
+        <v>0.8646979966531234</v>
       </c>
       <c r="K12">
-        <v>0.9489932018210511</v>
+        <v>0.8297635573796763</v>
       </c>
       <c r="L12">
-        <v>0.9646273921789486</v>
+        <v>0.879074309677029</v>
       </c>
       <c r="M12">
-        <v>1.064182250957898</v>
+        <v>1.216507081308554</v>
       </c>
       <c r="N12">
-        <v>1.064182250957898</v>
+        <v>1.216507081308554</v>
       </c>
       <c r="O12">
-        <v>1.07162894463509</v>
+        <v>1.242165471313492</v>
       </c>
       <c r="P12">
-        <v>1.025785901245616</v>
+        <v>1.087592573332262</v>
       </c>
       <c r="Q12">
-        <v>1.025785901245616</v>
+        <v>1.087592573332261</v>
       </c>
       <c r="R12">
-        <v>1.006587726389474</v>
+        <v>1.023135319344115</v>
       </c>
       <c r="S12">
-        <v>1.006587726389474</v>
+        <v>1.023135319344115</v>
       </c>
       <c r="T12">
-        <v>1.005413578029825</v>
+        <v>1.017914481563817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8948613536894222</v>
+        <v>0.9603136353806515</v>
       </c>
       <c r="D13">
-        <v>1.025822833881602</v>
+        <v>1.004752227008736</v>
       </c>
       <c r="E13">
-        <v>0.8948613536894222</v>
+        <v>0.9603136353806515</v>
       </c>
       <c r="F13">
-        <v>1.027094221497362</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="G13">
-        <v>0.9425029356516539</v>
+        <v>0.9816792367028291</v>
       </c>
       <c r="H13">
-        <v>1.068555774332426</v>
+        <v>1.009170426698961</v>
       </c>
       <c r="I13">
-        <v>1.027094221497362</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="J13">
-        <v>1.02619349949295</v>
+        <v>1.008978702914512</v>
       </c>
       <c r="K13">
-        <v>1.027094221497362</v>
+        <v>1.019249035877348</v>
       </c>
       <c r="L13">
-        <v>1.025822833881602</v>
+        <v>1.004752227008736</v>
       </c>
       <c r="M13">
-        <v>0.9603420937855123</v>
+        <v>0.982532931194694</v>
       </c>
       <c r="N13">
-        <v>0.9603420937855123</v>
+        <v>0.982532931194694</v>
       </c>
       <c r="O13">
-        <v>0.9543957077408928</v>
+        <v>0.9822483663640723</v>
       </c>
       <c r="P13">
-        <v>0.9825928030227956</v>
+        <v>0.9947716327555787</v>
       </c>
       <c r="Q13">
-        <v>0.9825928030227954</v>
+        <v>0.9947716327555787</v>
       </c>
       <c r="R13">
-        <v>0.9937181576414371</v>
+        <v>1.000890983536021</v>
       </c>
       <c r="S13">
-        <v>0.9937181576414371</v>
+        <v>1.000890983536021</v>
       </c>
       <c r="T13">
-        <v>0.9975051030909027</v>
+        <v>0.9973572107638397</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.957937099999999</v>
+        <v>1.163737109736847</v>
       </c>
       <c r="D14">
-        <v>0.7915387899999989</v>
+        <v>0.9646273921789486</v>
       </c>
       <c r="E14">
-        <v>1.957937099999999</v>
+        <v>1.163737109736847</v>
       </c>
       <c r="F14">
-        <v>0.7044202900000011</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="G14">
-        <v>1.507101800000001</v>
+        <v>1.086522331989475</v>
       </c>
       <c r="H14">
-        <v>0.46000639</v>
+        <v>0.908532113610526</v>
       </c>
       <c r="I14">
-        <v>0.7044202900000011</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="J14">
-        <v>0.766139809999999</v>
+        <v>0.9600693188421048</v>
       </c>
       <c r="K14">
-        <v>0.7044202900000011</v>
+        <v>0.9489932018210511</v>
       </c>
       <c r="L14">
-        <v>0.7915387899999989</v>
+        <v>0.9646273921789486</v>
       </c>
       <c r="M14">
-        <v>1.374737944999999</v>
+        <v>1.064182250957898</v>
       </c>
       <c r="N14">
-        <v>1.374737944999999</v>
+        <v>1.064182250957898</v>
       </c>
       <c r="O14">
-        <v>1.41885923</v>
+        <v>1.07162894463509</v>
       </c>
       <c r="P14">
-        <v>1.151298726666666</v>
+        <v>1.025785901245616</v>
       </c>
       <c r="Q14">
-        <v>1.151298726666666</v>
+        <v>1.025785901245616</v>
       </c>
       <c r="R14">
-        <v>1.0395791175</v>
+        <v>1.006587726389474</v>
       </c>
       <c r="S14">
-        <v>1.0395791175</v>
+        <v>1.006587726389474</v>
       </c>
       <c r="T14">
-        <v>1.031190696666666</v>
+        <v>1.005413578029825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5229061699999999</v>
+        <v>0.8948613536894222</v>
       </c>
       <c r="D15">
-        <v>0.99179431</v>
+        <v>1.025822833881602</v>
       </c>
       <c r="E15">
-        <v>0.5229061699999999</v>
+        <v>0.8948613536894222</v>
       </c>
       <c r="F15">
-        <v>1.3679559</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="G15">
-        <v>0.7938064500000001</v>
+        <v>0.9425029356516539</v>
       </c>
       <c r="H15">
-        <v>0.9618347200000001</v>
+        <v>1.068555774332426</v>
       </c>
       <c r="I15">
-        <v>1.3679559</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="J15">
-        <v>1.1014624</v>
+        <v>1.02619349949295</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>1.027094221497362</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>1.025822833881602</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>0.9603420937855123</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>0.9603420937855123</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>0.9543957077408928</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>0.9825928030227956</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>0.9825928030227954</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>0.9937181576414371</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>0.9937181576414371</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>0.9975051030909027</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.42001931</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="D16">
-        <v>1.1327554</v>
+        <v>0.7915387899999989</v>
       </c>
       <c r="E16">
-        <v>0.42001931</v>
+        <v>1.957937099999999</v>
       </c>
       <c r="F16">
-        <v>1.1783331</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="G16">
-        <v>0.67514785</v>
+        <v>1.507101800000001</v>
       </c>
       <c r="H16">
-        <v>1.3704655</v>
+        <v>0.46000639</v>
       </c>
       <c r="I16">
-        <v>1.1783331</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="J16">
-        <v>1.1460434</v>
+        <v>0.766139809999999</v>
       </c>
       <c r="K16">
-        <v>1.1783331</v>
+        <v>0.7044202900000011</v>
       </c>
       <c r="L16">
-        <v>1.1327554</v>
+        <v>0.7915387899999989</v>
       </c>
       <c r="M16">
-        <v>0.776387355</v>
+        <v>1.374737944999999</v>
       </c>
       <c r="N16">
-        <v>0.776387355</v>
+        <v>1.374737944999999</v>
       </c>
       <c r="O16">
-        <v>0.7426408533333334</v>
+        <v>1.41885923</v>
       </c>
       <c r="P16">
-        <v>0.91036927</v>
+        <v>1.151298726666666</v>
       </c>
       <c r="Q16">
-        <v>0.91036927</v>
+        <v>1.151298726666666</v>
       </c>
       <c r="R16">
-        <v>0.9773602275</v>
+        <v>1.0395791175</v>
       </c>
       <c r="S16">
-        <v>0.9773602275</v>
+        <v>1.0395791175</v>
       </c>
       <c r="T16">
-        <v>0.9871274266666666</v>
+        <v>1.031190696666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.39830763</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="D17">
-        <v>1.1820294</v>
+        <v>0.99179431</v>
       </c>
       <c r="E17">
-        <v>0.39830763</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F17">
-        <v>1.1002904</v>
+        <v>1.3679559</v>
       </c>
       <c r="G17">
-        <v>0.63959612</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="H17">
-        <v>1.5192043</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="I17">
-        <v>1.1002904</v>
+        <v>1.3679559</v>
       </c>
       <c r="J17">
-        <v>1.1581988</v>
+        <v>1.1014624</v>
       </c>
       <c r="K17">
-        <v>1.1002904</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>1.1820294</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>0.790168515</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>0.790168515</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>0.7399777166666667</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>0.8935424766666666</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>0.8935424766666668</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>0.9452294575000001</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>0.9452294575000001</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>0.9996044416666666</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.320336962328767</v>
+        <v>0.42001931</v>
       </c>
       <c r="D18">
-        <v>0.9086469157534247</v>
+        <v>1.1327554</v>
       </c>
       <c r="E18">
-        <v>1.320336962328767</v>
+        <v>0.42001931</v>
       </c>
       <c r="F18">
-        <v>0.9403982561643832</v>
+        <v>1.1783331</v>
       </c>
       <c r="G18">
-        <v>1.183216402328767</v>
+        <v>0.67514785</v>
       </c>
       <c r="H18">
-        <v>0.7509090613698632</v>
+        <v>1.3704655</v>
       </c>
       <c r="I18">
-        <v>0.9403982561643832</v>
+        <v>1.1783331</v>
       </c>
       <c r="J18">
-        <v>0.917903867945206</v>
+        <v>1.1460434</v>
       </c>
       <c r="K18">
-        <v>0.9403982561643832</v>
+        <v>1.1783331</v>
       </c>
       <c r="L18">
-        <v>0.9086469157534247</v>
+        <v>1.1327554</v>
       </c>
       <c r="M18">
-        <v>1.114491939041096</v>
+        <v>0.776387355</v>
       </c>
       <c r="N18">
-        <v>1.114491939041096</v>
+        <v>0.776387355</v>
       </c>
       <c r="O18">
-        <v>1.13740009347032</v>
+        <v>0.7426408533333334</v>
       </c>
       <c r="P18">
-        <v>1.056460711415525</v>
+        <v>0.91036927</v>
       </c>
       <c r="Q18">
-        <v>1.056460711415525</v>
+        <v>0.91036927</v>
       </c>
       <c r="R18">
-        <v>1.02744509760274</v>
+        <v>0.9773602275</v>
       </c>
       <c r="S18">
-        <v>1.02744509760274</v>
+        <v>0.9773602275</v>
       </c>
       <c r="T18">
-        <v>1.003568577648402</v>
+        <v>0.9871274266666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9411247163157893</v>
+        <v>0.39830763</v>
       </c>
       <c r="D19">
-        <v>1.049972158421053</v>
+        <v>1.1820294</v>
       </c>
       <c r="E19">
-        <v>0.9411247163157893</v>
+        <v>0.39830763</v>
       </c>
       <c r="F19">
-        <v>0.9565799573684211</v>
+        <v>1.1002904</v>
       </c>
       <c r="G19">
-        <v>0.9375689689473686</v>
+        <v>0.63959612</v>
       </c>
       <c r="H19">
-        <v>1.165946744210526</v>
+        <v>1.5192043</v>
       </c>
       <c r="I19">
-        <v>0.9565799573684211</v>
+        <v>1.1002904</v>
       </c>
       <c r="J19">
-        <v>1.02274412</v>
+        <v>1.1581988</v>
       </c>
       <c r="K19">
-        <v>0.9565799573684211</v>
+        <v>1.1002904</v>
       </c>
       <c r="L19">
-        <v>1.049972158421053</v>
+        <v>1.1820294</v>
       </c>
       <c r="M19">
-        <v>0.9955484373684211</v>
+        <v>0.790168515</v>
       </c>
       <c r="N19">
-        <v>0.9955484373684211</v>
+        <v>0.790168515</v>
       </c>
       <c r="O19">
-        <v>0.976221947894737</v>
+        <v>0.7399777166666667</v>
       </c>
       <c r="P19">
-        <v>0.9825589440350878</v>
+        <v>0.8935424766666666</v>
       </c>
       <c r="Q19">
-        <v>0.9825589440350878</v>
+        <v>0.8935424766666668</v>
       </c>
       <c r="R19">
-        <v>0.9760641973684211</v>
+        <v>0.9452294575000001</v>
       </c>
       <c r="S19">
-        <v>0.9760641973684211</v>
+        <v>0.9452294575000001</v>
       </c>
       <c r="T19">
-        <v>1.01232277754386</v>
+        <v>0.9996044416666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8132176789473686</v>
+        <v>1.320336962328767</v>
       </c>
       <c r="D20">
-        <v>1.046321131052631</v>
+        <v>0.9086469157534247</v>
       </c>
       <c r="E20">
-        <v>0.8132176789473686</v>
+        <v>1.320336962328767</v>
       </c>
       <c r="F20">
-        <v>1.050045167368421</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="G20">
-        <v>0.8934591215789474</v>
+        <v>1.183216402328767</v>
       </c>
       <c r="H20">
-        <v>1.132142987368421</v>
+        <v>0.7509090613698632</v>
       </c>
       <c r="I20">
-        <v>1.050045167368421</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="J20">
-        <v>1.047406860526316</v>
+        <v>0.917903867945206</v>
       </c>
       <c r="K20">
-        <v>1.050045167368421</v>
+        <v>0.9403982561643832</v>
       </c>
       <c r="L20">
-        <v>1.046321131052631</v>
+        <v>0.9086469157534247</v>
       </c>
       <c r="M20">
-        <v>0.929769405</v>
+        <v>1.114491939041096</v>
       </c>
       <c r="N20">
-        <v>0.929769405</v>
+        <v>1.114491939041096</v>
       </c>
       <c r="O20">
-        <v>0.9176659771929825</v>
+        <v>1.13740009347032</v>
       </c>
       <c r="P20">
-        <v>0.9698613257894738</v>
+        <v>1.056460711415525</v>
       </c>
       <c r="Q20">
-        <v>0.9698613257894738</v>
+        <v>1.056460711415525</v>
       </c>
       <c r="R20">
-        <v>0.9899072861842106</v>
+        <v>1.02744509760274</v>
       </c>
       <c r="S20">
-        <v>0.9899072861842106</v>
+        <v>1.02744509760274</v>
       </c>
       <c r="T20">
-        <v>0.9970988244736843</v>
+        <v>1.003568577648402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9753406102947882</v>
+        <v>0.9411247163157893</v>
       </c>
       <c r="D21">
-        <v>1.047868319287929</v>
+        <v>1.049972158421053</v>
       </c>
       <c r="E21">
-        <v>0.9753406102947882</v>
+        <v>0.9411247163157893</v>
       </c>
       <c r="F21">
-        <v>0.9308728181281832</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="G21">
-        <v>0.9595273265176854</v>
+        <v>0.9375689689473686</v>
       </c>
       <c r="H21">
-        <v>1.150124568706548</v>
+        <v>1.165946744210526</v>
       </c>
       <c r="I21">
-        <v>0.9308728181281832</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="J21">
-        <v>1.013758856836757</v>
+        <v>1.02274412</v>
       </c>
       <c r="K21">
-        <v>0.9308728181281832</v>
+        <v>0.9565799573684211</v>
       </c>
       <c r="L21">
-        <v>1.047868319287929</v>
+        <v>1.049972158421053</v>
       </c>
       <c r="M21">
-        <v>1.011604464791359</v>
+        <v>0.9955484373684211</v>
       </c>
       <c r="N21">
-        <v>1.011604464791359</v>
+        <v>0.9955484373684211</v>
       </c>
       <c r="O21">
-        <v>0.9942454187001344</v>
+        <v>0.976221947894737</v>
       </c>
       <c r="P21">
-        <v>0.9846939159036338</v>
+        <v>0.9825589440350878</v>
       </c>
       <c r="Q21">
-        <v>0.9846939159036335</v>
+        <v>0.9825589440350878</v>
       </c>
       <c r="R21">
-        <v>0.971238641459771</v>
+        <v>0.9760641973684211</v>
       </c>
       <c r="S21">
-        <v>0.971238641459771</v>
+        <v>0.9760641973684211</v>
       </c>
       <c r="T21">
-        <v>1.012915416628648</v>
+        <v>1.01232277754386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9583838242667004</v>
+        <v>0.8132176789473686</v>
       </c>
       <c r="D22">
-        <v>0.9934404279803428</v>
+        <v>1.046321131052631</v>
       </c>
       <c r="E22">
-        <v>0.9583838242667004</v>
+        <v>0.8132176789473686</v>
       </c>
       <c r="F22">
-        <v>1.041597719753493</v>
+        <v>1.050045167368421</v>
       </c>
       <c r="G22">
-        <v>0.9877867154196398</v>
+        <v>0.8934591215789474</v>
       </c>
       <c r="H22">
-        <v>0.9727108968762332</v>
+        <v>1.132142987368421</v>
       </c>
       <c r="I22">
-        <v>1.041597719753493</v>
+        <v>1.050045167368421</v>
       </c>
       <c r="J22">
-        <v>1.007480446150207</v>
+        <v>1.047406860526316</v>
       </c>
       <c r="K22">
-        <v>1.041597719753493</v>
+        <v>1.050045167368421</v>
       </c>
       <c r="L22">
-        <v>0.9934404279803428</v>
+        <v>1.046321131052631</v>
       </c>
       <c r="M22">
-        <v>0.9759121261235216</v>
+        <v>0.929769405</v>
       </c>
       <c r="N22">
-        <v>0.9759121261235216</v>
+        <v>0.929769405</v>
       </c>
       <c r="O22">
-        <v>0.9798703225555609</v>
+        <v>0.9176659771929825</v>
       </c>
       <c r="P22">
-        <v>0.9978073240001789</v>
+        <v>0.9698613257894738</v>
       </c>
       <c r="Q22">
-        <v>0.9978073240001789</v>
+        <v>0.9698613257894738</v>
       </c>
       <c r="R22">
-        <v>1.008754922938508</v>
+        <v>0.9899072861842106</v>
       </c>
       <c r="S22">
-        <v>1.008754922938508</v>
+        <v>0.9899072861842106</v>
       </c>
       <c r="T22">
-        <v>0.9935666717411027</v>
+        <v>0.9970988244736843</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9105796992393499</v>
+        <v>0.9753406102947882</v>
       </c>
       <c r="D23">
-        <v>0.9929873492974732</v>
+        <v>1.047868319287929</v>
       </c>
       <c r="E23">
-        <v>0.9105796992393499</v>
+        <v>0.9753406102947882</v>
       </c>
       <c r="F23">
-        <v>1.075386889794298</v>
+        <v>0.9308728181281832</v>
       </c>
       <c r="G23">
-        <v>0.9696302746571999</v>
+        <v>0.9595273265176854</v>
       </c>
       <c r="H23">
-        <v>0.966031681228925</v>
+        <v>1.150124568706548</v>
       </c>
       <c r="I23">
-        <v>1.075386889794298</v>
+        <v>0.9308728181281832</v>
       </c>
       <c r="J23">
-        <v>1.017010539067367</v>
+        <v>1.013758856836757</v>
       </c>
       <c r="K23">
-        <v>1.075386889794298</v>
+        <v>0.9308728181281832</v>
       </c>
       <c r="L23">
-        <v>0.9929873492974732</v>
+        <v>1.047868319287929</v>
       </c>
       <c r="M23">
-        <v>0.9517835242684116</v>
+        <v>1.011604464791359</v>
       </c>
       <c r="N23">
-        <v>0.9517835242684116</v>
+        <v>1.011604464791359</v>
       </c>
       <c r="O23">
-        <v>0.9577324410646743</v>
+        <v>0.9942454187001344</v>
       </c>
       <c r="P23">
-        <v>0.992984646110374</v>
+        <v>0.9846939159036338</v>
       </c>
       <c r="Q23">
-        <v>0.992984646110374</v>
+        <v>0.9846939159036335</v>
       </c>
       <c r="R23">
-        <v>1.013585207031355</v>
+        <v>0.971238641459771</v>
       </c>
       <c r="S23">
-        <v>1.013585207031355</v>
+        <v>0.971238641459771</v>
       </c>
       <c r="T23">
-        <v>0.9886044055474356</v>
+        <v>1.012915416628648</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.00267354164588</v>
+        <v>0.9583838242667004</v>
       </c>
       <c r="D24">
-        <v>1.011692037474417</v>
+        <v>0.9934404279803428</v>
       </c>
       <c r="E24">
-        <v>1.00267354164588</v>
+        <v>0.9583838242667004</v>
       </c>
       <c r="F24">
-        <v>0.9768606400292907</v>
+        <v>1.041597719753493</v>
       </c>
       <c r="G24">
-        <v>0.993730350242331</v>
+        <v>0.9877867154196398</v>
       </c>
       <c r="H24">
-        <v>1.037326427000578</v>
+        <v>0.9727108968762332</v>
       </c>
       <c r="I24">
-        <v>0.9768606400292907</v>
+        <v>1.041597719753493</v>
       </c>
       <c r="J24">
-        <v>1.001537114277415</v>
+        <v>1.007480446150207</v>
       </c>
       <c r="K24">
-        <v>0.9768606400292907</v>
+        <v>1.041597719753493</v>
       </c>
       <c r="L24">
-        <v>1.011692037474417</v>
+        <v>0.9934404279803428</v>
       </c>
       <c r="M24">
-        <v>1.007182789560149</v>
+        <v>0.9759121261235216</v>
       </c>
       <c r="N24">
-        <v>1.007182789560149</v>
+        <v>0.9759121261235216</v>
       </c>
       <c r="O24">
-        <v>1.002698643120876</v>
+        <v>0.9798703225555609</v>
       </c>
       <c r="P24">
-        <v>0.997075406383196</v>
+        <v>0.9978073240001789</v>
       </c>
       <c r="Q24">
-        <v>0.997075406383196</v>
+        <v>0.9978073240001789</v>
       </c>
       <c r="R24">
-        <v>0.9920217147947197</v>
+        <v>1.008754922938508</v>
       </c>
       <c r="S24">
-        <v>0.9920217147947197</v>
+        <v>1.008754922938508</v>
       </c>
       <c r="T24">
-        <v>1.003970018444985</v>
+        <v>0.9935666717411027</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6854382894174851</v>
+        <v>0.9105796992393499</v>
       </c>
       <c r="D25">
-        <v>1.067023892585658</v>
+        <v>0.9929873492974732</v>
       </c>
       <c r="E25">
-        <v>0.6854382894174851</v>
+        <v>0.9105796992393499</v>
       </c>
       <c r="F25">
-        <v>1.099673522981465</v>
+        <v>1.075386889794298</v>
       </c>
       <c r="G25">
-        <v>0.8344924368907178</v>
+        <v>0.9696302746571999</v>
       </c>
       <c r="H25">
-        <v>1.172252547774983</v>
+        <v>0.966031681228925</v>
       </c>
       <c r="I25">
-        <v>1.099673522981465</v>
+        <v>1.075386889794298</v>
       </c>
       <c r="J25">
-        <v>1.076542747058138</v>
+        <v>1.017010539067367</v>
       </c>
       <c r="K25">
-        <v>1.099673522981465</v>
+        <v>1.075386889794298</v>
       </c>
       <c r="L25">
-        <v>1.067023892585658</v>
+        <v>0.9929873492974732</v>
       </c>
       <c r="M25">
-        <v>0.8762310910015717</v>
+        <v>0.9517835242684116</v>
       </c>
       <c r="N25">
-        <v>0.8762310910015717</v>
+        <v>0.9517835242684116</v>
       </c>
       <c r="O25">
-        <v>0.8623182062979536</v>
+        <v>0.9577324410646743</v>
       </c>
       <c r="P25">
-        <v>0.9507119016615361</v>
+        <v>0.992984646110374</v>
       </c>
       <c r="Q25">
-        <v>0.9507119016615361</v>
+        <v>0.992984646110374</v>
       </c>
       <c r="R25">
-        <v>0.9879523069915181</v>
+        <v>1.013585207031355</v>
       </c>
       <c r="S25">
-        <v>0.9879523069915181</v>
+        <v>1.013585207031355</v>
       </c>
       <c r="T25">
-        <v>0.9892372394514078</v>
+        <v>0.9886044055474356</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.927473889069191</v>
+        <v>1.00267354164588</v>
       </c>
       <c r="D26">
-        <v>1.022694348108632</v>
+        <v>1.011692037474417</v>
       </c>
       <c r="E26">
-        <v>0.927473889069191</v>
+        <v>1.00267354164588</v>
       </c>
       <c r="F26">
-        <v>1.009466547317395</v>
+        <v>0.9768606400292907</v>
       </c>
       <c r="G26">
-        <v>0.9573364926206083</v>
+        <v>0.993730350242331</v>
       </c>
       <c r="H26">
-        <v>1.063614161000138</v>
+        <v>1.037326427000578</v>
       </c>
       <c r="I26">
-        <v>1.009466547317395</v>
+        <v>0.9768606400292907</v>
       </c>
       <c r="J26">
-        <v>1.018837839459589</v>
+        <v>1.001537114277415</v>
       </c>
       <c r="K26">
-        <v>1.009466547317395</v>
+        <v>0.9768606400292907</v>
       </c>
       <c r="L26">
-        <v>1.022694348108632</v>
+        <v>1.011692037474417</v>
       </c>
       <c r="M26">
-        <v>0.9750841185889116</v>
+        <v>1.007182789560149</v>
       </c>
       <c r="N26">
-        <v>0.9750841185889116</v>
+        <v>1.007182789560149</v>
       </c>
       <c r="O26">
-        <v>0.9691682432661439</v>
+        <v>1.002698643120876</v>
       </c>
       <c r="P26">
-        <v>0.9865449281650728</v>
+        <v>0.997075406383196</v>
       </c>
       <c r="Q26">
-        <v>0.9865449281650728</v>
+        <v>0.997075406383196</v>
       </c>
       <c r="R26">
-        <v>0.9922753329531534</v>
+        <v>0.9920217147947197</v>
       </c>
       <c r="S26">
-        <v>0.9922753329531534</v>
+        <v>0.9920217147947197</v>
       </c>
       <c r="T26">
-        <v>0.9999038795959256</v>
+        <v>1.003970018444985</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.061717310555795</v>
+        <v>0.6854382894174851</v>
       </c>
       <c r="D27">
-        <v>0.9825502752016544</v>
+        <v>1.067023892585658</v>
       </c>
       <c r="E27">
-        <v>1.061717310555795</v>
+        <v>0.6854382894174851</v>
       </c>
       <c r="F27">
-        <v>0.9923478003266283</v>
+        <v>1.099673522981465</v>
       </c>
       <c r="G27">
-        <v>1.029357323033703</v>
+        <v>0.8344924368907178</v>
       </c>
       <c r="H27">
-        <v>0.964426750898623</v>
+        <v>1.172252547774983</v>
       </c>
       <c r="I27">
-        <v>0.9923478003266283</v>
+        <v>1.099673522981465</v>
       </c>
       <c r="J27">
-        <v>0.9854066968915135</v>
+        <v>1.076542747058138</v>
       </c>
       <c r="K27">
-        <v>0.9923478003266283</v>
+        <v>1.099673522981465</v>
       </c>
       <c r="L27">
-        <v>0.9825502752016544</v>
+        <v>1.067023892585658</v>
       </c>
       <c r="M27">
-        <v>1.022133792878725</v>
+        <v>0.8762310910015717</v>
       </c>
       <c r="N27">
-        <v>1.022133792878725</v>
+        <v>0.8762310910015717</v>
       </c>
       <c r="O27">
-        <v>1.024541636263717</v>
+        <v>0.8623182062979536</v>
       </c>
       <c r="P27">
-        <v>1.012205128694693</v>
+        <v>0.9507119016615361</v>
       </c>
       <c r="Q27">
-        <v>1.012205128694693</v>
+        <v>0.9507119016615361</v>
       </c>
       <c r="R27">
-        <v>1.007240796602677</v>
+        <v>0.9879523069915181</v>
       </c>
       <c r="S27">
-        <v>1.007240796602677</v>
+        <v>0.9879523069915181</v>
       </c>
       <c r="T27">
-        <v>1.002634359484653</v>
+        <v>0.9892372394514078</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9421147952542833</v>
+        <v>0.927473889069191</v>
       </c>
       <c r="D28">
-        <v>1.01888634249518</v>
+        <v>1.022694348108632</v>
       </c>
       <c r="E28">
-        <v>0.9421147952542833</v>
+        <v>0.927473889069191</v>
       </c>
       <c r="F28">
-        <v>1.006516576443405</v>
+        <v>1.009466547317395</v>
       </c>
       <c r="G28">
-        <v>0.9653683676202809</v>
+        <v>0.9573364926206083</v>
       </c>
       <c r="H28">
-        <v>1.052458952442305</v>
+        <v>1.063614161000138</v>
       </c>
       <c r="I28">
-        <v>1.006516576443405</v>
+        <v>1.009466547317395</v>
       </c>
       <c r="J28">
-        <v>1.01528000139616</v>
+        <v>1.018837839459589</v>
       </c>
       <c r="K28">
-        <v>1.006516576443405</v>
+        <v>1.009466547317395</v>
       </c>
       <c r="L28">
-        <v>1.01888634249518</v>
+        <v>1.022694348108632</v>
       </c>
       <c r="M28">
-        <v>0.9805005688747315</v>
+        <v>0.9750841185889116</v>
       </c>
       <c r="N28">
-        <v>0.9805005688747315</v>
+        <v>0.9750841185889116</v>
       </c>
       <c r="O28">
-        <v>0.9754565017899145</v>
+        <v>0.9691682432661439</v>
       </c>
       <c r="P28">
-        <v>0.9891725713976226</v>
+        <v>0.9865449281650728</v>
       </c>
       <c r="Q28">
-        <v>0.9891725713976228</v>
+        <v>0.9865449281650728</v>
       </c>
       <c r="R28">
-        <v>0.9935085726590683</v>
+        <v>0.9922753329531534</v>
       </c>
       <c r="S28">
-        <v>0.9935085726590683</v>
+        <v>0.9922753329531534</v>
       </c>
       <c r="T28">
-        <v>1.000104172608602</v>
+        <v>0.9999038795959256</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.061717310555795</v>
+      </c>
+      <c r="D29">
+        <v>0.9825502752016544</v>
+      </c>
+      <c r="E29">
+        <v>1.061717310555795</v>
+      </c>
+      <c r="F29">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="G29">
+        <v>1.029357323033703</v>
+      </c>
+      <c r="H29">
+        <v>0.964426750898623</v>
+      </c>
+      <c r="I29">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="J29">
+        <v>0.9854066968915135</v>
+      </c>
+      <c r="K29">
+        <v>0.9923478003266283</v>
+      </c>
+      <c r="L29">
+        <v>0.9825502752016544</v>
+      </c>
+      <c r="M29">
+        <v>1.022133792878725</v>
+      </c>
+      <c r="N29">
+        <v>1.022133792878725</v>
+      </c>
+      <c r="O29">
+        <v>1.024541636263717</v>
+      </c>
+      <c r="P29">
+        <v>1.012205128694693</v>
+      </c>
+      <c r="Q29">
+        <v>1.012205128694693</v>
+      </c>
+      <c r="R29">
+        <v>1.007240796602677</v>
+      </c>
+      <c r="S29">
+        <v>1.007240796602677</v>
+      </c>
+      <c r="T29">
+        <v>1.002634359484653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9421147952542833</v>
+      </c>
+      <c r="D30">
+        <v>1.01888634249518</v>
+      </c>
+      <c r="E30">
+        <v>0.9421147952542833</v>
+      </c>
+      <c r="F30">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="G30">
+        <v>0.9653683676202809</v>
+      </c>
+      <c r="H30">
+        <v>1.052458952442305</v>
+      </c>
+      <c r="I30">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="J30">
+        <v>1.01528000139616</v>
+      </c>
+      <c r="K30">
+        <v>1.006516576443405</v>
+      </c>
+      <c r="L30">
+        <v>1.01888634249518</v>
+      </c>
+      <c r="M30">
+        <v>0.9805005688747315</v>
+      </c>
+      <c r="N30">
+        <v>0.9805005688747315</v>
+      </c>
+      <c r="O30">
+        <v>0.9754565017899145</v>
+      </c>
+      <c r="P30">
+        <v>0.9891725713976226</v>
+      </c>
+      <c r="Q30">
+        <v>0.9891725713976228</v>
+      </c>
+      <c r="R30">
+        <v>0.9935085726590683</v>
+      </c>
+      <c r="S30">
+        <v>0.9935085726590683</v>
+      </c>
+      <c r="T30">
+        <v>1.000104172608602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.770676259566808</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.058183324743838</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.770676259566808</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.05526532718019</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8742525181343386</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.153309673943349</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.05526532718019</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.057332600259997</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.05526532718019</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.058183324743838</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9144297921553232</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9144297921553232</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9010373674816616</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9613749704969455</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9613749704969455</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9848475596677566</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9848475596677566</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9948366173047534</v>
       </c>
     </row>
